--- a/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
+++ b/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936"/>
+    <workbookView xWindow="300" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936"/>
   </bookViews>
   <sheets>
     <sheet name="neat-todo" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="606">
   <si>
     <t>Date</t>
   </si>
@@ -1757,9 +1757,6 @@
     <t>if I change any of the data in seeds</t>
   </si>
   <si>
-    <t>Finally, I will be able to enter new whiskeys after an event.</t>
-  </si>
-  <si>
     <t>need to change database from sqllite to postgres</t>
   </si>
   <si>
@@ -1769,36 +1766,12 @@
     <t>NAV BAR</t>
   </si>
   <si>
-    <t>inline, not block</t>
-  </si>
-  <si>
-    <t>remove underline</t>
-  </si>
-  <si>
-    <t>remove bullets</t>
-  </si>
-  <si>
-    <t>fix colors- yellow</t>
-  </si>
-  <si>
     <t>SHOW WHISKEY PAGE</t>
   </si>
   <si>
-    <t>RULES PAGE</t>
-  </si>
-  <si>
-    <t>ADD COMMENT TO SHOW PAGE</t>
-  </si>
-  <si>
     <t>image on left, data on right</t>
   </si>
   <si>
-    <t>have on every page!!!</t>
-  </si>
-  <si>
-    <t>only if I have time</t>
-  </si>
-  <si>
     <t>link as many images as possible</t>
   </si>
   <si>
@@ -1808,31 +1781,76 @@
     <t>LOGIN PAGE</t>
   </si>
   <si>
-    <t>link page to home, sessions, etc.</t>
-  </si>
-  <si>
     <t>TWEAK NEW WHISKEY FORM</t>
   </si>
   <si>
     <t>GA STUFF</t>
   </si>
   <si>
-    <t>look table headers to page?</t>
-  </si>
-  <si>
-    <t>have all columns sortable</t>
-  </si>
-  <si>
-    <t>where do I put it?</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>Controllers singular and plural!!!!</t>
+    <t>git checkout nav</t>
+  </si>
+  <si>
+    <t>git branch nav</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>home page image showing on ALL show pages</t>
+  </si>
+  <si>
+    <t>doesn't seem to be working?</t>
+  </si>
+  <si>
+    <t>enter new whiskeys after an event.</t>
+  </si>
+  <si>
+    <t>CREATE NEW MEMBER FORM</t>
+  </si>
+  <si>
+    <t>enter/ delete new members after an event.</t>
+  </si>
+  <si>
+    <t>how to make so only member id 1 or 2 can edit</t>
+  </si>
+  <si>
+    <t>shows which branch we are on and what is available</t>
+  </si>
+  <si>
+    <t>switches to the nav branch</t>
+  </si>
+  <si>
+    <t>ADD NEW COMMENT TO SHOW PAGE</t>
+  </si>
+  <si>
+    <t>does this have to do with where css files are stored? Should I use application.css?</t>
+  </si>
+  <si>
+    <t>remove underline on logo, change color to dark yellow</t>
+  </si>
+  <si>
+    <t>fix colors- dark yellow #F1C232</t>
+  </si>
+  <si>
+    <t>remove nav bar from home page - can I use:</t>
+  </si>
+  <si>
+    <t>background:transparent;</t>
+  </si>
+  <si>
+    <t>border: 0px;</t>
+  </si>
+  <si>
+    <t>display all whiskey's comments on whiskey show page</t>
+  </si>
+  <si>
+    <t>WHISKEY IMAGES</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_rid1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/ablob.non27.jpg</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1984,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="387">
+  <cellStyleXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2354,6 +2372,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2518,7 +2560,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="387">
+  <cellStyles count="411">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2741,6 +2783,18 @@
     <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2905,6 +2959,18 @@
     <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3420,186 +3486,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    <row r="2" spans="1:6">
+      <c r="A2" s="21"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="21"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="B3" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>575</v>
       </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="22" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="C9" s="21">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>588</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="E28" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="E29" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>589</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="E32" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="E33" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>592</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="E37" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="22" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="C18" s="21">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="C25" s="21">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="22" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3961,7 @@
         <v>386</v>
       </c>
       <c r="W4" s="28">
-        <f>COUNTIF(E4:V4,"T")</f>
+        <f t="shared" ref="W4:W23" si="0">COUNTIF(E4:V4,"T")</f>
         <v>18</v>
       </c>
     </row>
@@ -3922,7 +4015,7 @@
         <v>386</v>
       </c>
       <c r="W5" s="28">
-        <f>COUNTIF(E5:V5,"T")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -3970,7 +4063,7 @@
         <v>386</v>
       </c>
       <c r="W6" s="28">
-        <f>COUNTIF(E6:V6,"T")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -4012,7 +4105,7 @@
         <v>386</v>
       </c>
       <c r="W7" s="28">
-        <f>COUNTIF(E7:V7,"T")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4045,7 +4138,7 @@
         <v>386</v>
       </c>
       <c r="W8" s="28">
-        <f>COUNTIF(E8:V8,"T")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -4093,7 +4186,7 @@
         <v>386</v>
       </c>
       <c r="W9" s="28">
-        <f>COUNTIF(E9:V9,"T")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -4130,7 +4223,7 @@
         <v>386</v>
       </c>
       <c r="W10" s="28">
-        <f>COUNTIF(E10:V10,"T")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -4154,7 +4247,7 @@
         <v>386</v>
       </c>
       <c r="W11" s="28">
-        <f>COUNTIF(E11:V11,"T")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4199,7 +4292,7 @@
         <v>386</v>
       </c>
       <c r="W12" s="28">
-        <f>COUNTIF(E12:V12,"T")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4220,7 +4313,7 @@
         <v>386</v>
       </c>
       <c r="W13" s="28">
-        <f>COUNTIF(E13:V13,"T")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4238,7 +4331,7 @@
         <v>386</v>
       </c>
       <c r="W14" s="28">
-        <f>COUNTIF(E14:V14,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4256,7 +4349,7 @@
         <v>386</v>
       </c>
       <c r="W15" s="28">
-        <f>COUNTIF(E15:V15,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4283,7 +4376,7 @@
         <v>386</v>
       </c>
       <c r="W16" s="28">
-        <f>COUNTIF(E16:V16,"T")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -4301,7 +4394,7 @@
         <v>386</v>
       </c>
       <c r="W17" s="28">
-        <f>COUNTIF(E17:V17,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4319,7 +4412,7 @@
         <v>386</v>
       </c>
       <c r="W18" s="28">
-        <f>COUNTIF(E18:V18,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4337,7 +4430,7 @@
         <v>386</v>
       </c>
       <c r="W19" s="28">
-        <f>COUNTIF(E19:V19,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4356,7 +4449,7 @@
         <v>386</v>
       </c>
       <c r="W20" s="28">
-        <f>COUNTIF(E20:V20,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4377,7 +4470,7 @@
         <v>386</v>
       </c>
       <c r="W21" s="28">
-        <f>COUNTIF(E21:V21,"T")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4395,7 +4488,7 @@
         <v>386</v>
       </c>
       <c r="W22" s="28">
-        <f>COUNTIF(E22:V22,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4413,7 +4506,7 @@
         <v>386</v>
       </c>
       <c r="W23" s="28">
-        <f>COUNTIF(E23:V23,"T")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4422,71 +4515,71 @@
     </row>
     <row r="25" spans="1:23">
       <c r="E25" s="28">
-        <f t="shared" ref="E25:U25" si="0">COUNTIF(E3:E22,"T")</f>
+        <f t="shared" ref="E25:U25" si="1">COUNTIF(E3:E22,"T")</f>
         <v>8</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="V25" s="28">
@@ -8682,9 +8775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17919,7 +18012,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
+++ b/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936"/>
+    <workbookView xWindow="300" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="neat-todo" sheetId="6" r:id="rId1"/>
-    <sheet name="neat-models" sheetId="7" r:id="rId2"/>
-    <sheet name="neat-wireframes" sheetId="8" r:id="rId3"/>
-    <sheet name="whiskey" sheetId="1" r:id="rId4"/>
+    <sheet name="whiskey" sheetId="1" r:id="rId2"/>
+    <sheet name="neat-models" sheetId="7" r:id="rId3"/>
+    <sheet name="neat-wireframes" sheetId="8" r:id="rId4"/>
     <sheet name="event" sheetId="11" r:id="rId5"/>
     <sheet name="member" sheetId="14" r:id="rId6"/>
     <sheet name="comment" sheetId="12" r:id="rId7"/>
@@ -21,7 +21,7 @@
     <sheet name="member-event" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">whiskey!$A$1:$L$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">whiskey!$A$1:$L$118</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="685">
   <si>
     <t>Date</t>
   </si>
@@ -1757,12 +1757,6 @@
     <t>if I change any of the data in seeds</t>
   </si>
   <si>
-    <t>need to change database from sqllite to postgres</t>
-  </si>
-  <si>
-    <t>need to set-up to have Heroku host</t>
-  </si>
-  <si>
     <t>NAV BAR</t>
   </si>
   <si>
@@ -1775,18 +1769,9 @@
     <t>link as many images as possible</t>
   </si>
   <si>
-    <t>new, edit, delete</t>
-  </si>
-  <si>
-    <t>LOGIN PAGE</t>
-  </si>
-  <si>
     <t>TWEAK NEW WHISKEY FORM</t>
   </si>
   <si>
-    <t>GA STUFF</t>
-  </si>
-  <si>
     <t>git checkout nav</t>
   </si>
   <si>
@@ -1796,12 +1781,6 @@
     <t>git branch</t>
   </si>
   <si>
-    <t>home page image showing on ALL show pages</t>
-  </si>
-  <si>
-    <t>doesn't seem to be working?</t>
-  </si>
-  <si>
     <t>enter new whiskeys after an event.</t>
   </si>
   <si>
@@ -1823,24 +1802,6 @@
     <t>ADD NEW COMMENT TO SHOW PAGE</t>
   </si>
   <si>
-    <t>does this have to do with where css files are stored? Should I use application.css?</t>
-  </si>
-  <si>
-    <t>remove underline on logo, change color to dark yellow</t>
-  </si>
-  <si>
-    <t>fix colors- dark yellow #F1C232</t>
-  </si>
-  <si>
-    <t>remove nav bar from home page - can I use:</t>
-  </si>
-  <si>
-    <t>background:transparent;</t>
-  </si>
-  <si>
-    <t>border: 0px;</t>
-  </si>
-  <si>
     <t>display all whiskey's comments on whiskey show page</t>
   </si>
   <si>
@@ -1851,6 +1812,282 @@
   </si>
   <si>
     <t>https://img.thewhiskyexchange.com/900/ablob.non27.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_ang2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/abgob.10yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/abgob.non10.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/abgob.non2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/abgob.non8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/ardob.non.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/arrob.non35.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/aucob.non3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/balob.14yov4.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/brbon_bal4.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_bas1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_ber1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/bowob.non42.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/bowob.1999v1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/bowob.12yov14.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/hlpob.18yov2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/hlpob.12yov8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/elem_lg3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/elem_lg5.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/bruob.16yo.jpg</t>
+  </si>
+  <si>
+    <t>https://houseofwhiskey.co.nz/wp-content/uploads/whiskey_images/Octomore_5.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/pclob.non2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/brbon_buf13.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/bunob.12yov3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/irish_bus2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/cilob.18yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/cilob.12yov4.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/cilind1983v1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/bnvcrn1998.jpg</t>
+  </si>
+  <si>
+    <t>make edit, delete capable</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>style form in the middle of the page</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/irish_clo3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/clyob.14yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_eht3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/irish_con2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/cgmob.12yov2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/dlmob.15yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/dalob.15yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/dstob.non3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/edrob.12yo.jpg</t>
+  </si>
+  <si>
+    <t>http://www.jewmalt.com/wp-content/uploads/2010/05/1023042x.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/brbon_fou9.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/lrgob.10yov12.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/lrgob.non1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/lrgob.10yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/scpob.16yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/scpob.12yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/sprob.12yov25.jpg</t>
+  </si>
+  <si>
+    <t>https://s-media-cache-ak0.pinimg.com/736x/75/f3/85/75f3855ae936a705f40714a9fd485210.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/talob.18yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/talob.non7.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_tem1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_wil26.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/brbon_wil28.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_wil5.jpg</t>
+  </si>
+  <si>
+    <t>https://s-media-cache-ak0.pinimg.com/236x/0e/8f/ba/0e8fbaaad13ac172f2db7ffa707896bb.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/irish_tyr1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/270/tulob.05yov3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/irish_tul1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/tmtob.14yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/vatted_com25.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/japan_yam1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/stlob.12yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/brbon_wil39.jpg</t>
+  </si>
+  <si>
+    <t>why is it still blue and underlined, when I've changed in CSS?</t>
+  </si>
+  <si>
+    <t>yellow #F1C232</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/gfcob.12yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/ggoob.17yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/glvob.12yov1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/gmgob.non29.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/brbon_hud1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.drinkupny.com/v/vspfiles/photos/S1613-2.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/impsig1995v11.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/impsig1995v12.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/iojob.non.jpg</t>
+  </si>
+  <si>
+    <t>http://ecx.images-amazon.com/images/I/81ceGbhDnXL._SY679_.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/irish_kna6.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/lgvob.1996.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/lgvob.1995.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/ldgob.10yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/lkwsig1998v3.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/obnob.14yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/obnob.1969.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/obnob.1999.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/irish_red7.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/macob.12yov7.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/mnmsig1991.jpg</t>
+  </si>
+  <si>
+    <t>Macallan 18</t>
+  </si>
+  <si>
+    <t>Macallan Cask Strength</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/540/macob.18yo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.thewhiskyexchange.com/900/macob.10yov7.jpg</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +2221,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="411">
+  <cellStyleXfs count="877">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2371,6 +2608,472 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2560,7 +3263,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="411">
+  <cellStyles count="877">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2795,6 +3498,239 @@
     <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2971,6 +3907,239 @@
     <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3486,18 +4655,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F41"/>
+  <dimension ref="A2:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="67.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -3506,193 +4675,1009 @@
     <row r="3" spans="1:6">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3" t="s">
         <v>586</v>
-      </c>
-      <c r="F3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>574</v>
+        <v>658</v>
       </c>
       <c r="E4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="22"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="22" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>600</v>
+      <c r="B12" s="22" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
-        <v>596</v>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="22" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="22" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="22" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>580</v>
+      <c r="B18" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="22" t="s">
-        <v>581</v>
+      <c r="E26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>5</v>
+      <c r="E27" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="E28" s="29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="2:6">
+      <c r="B29" s="22" t="s">
+        <v>578</v>
+      </c>
       <c r="E29" s="29" t="s">
-        <v>19</v>
+        <v>324</v>
+      </c>
+      <c r="F29" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="22" t="s">
+      <c r="B30" t="s">
         <v>582</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>324</v>
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>589</v>
-      </c>
       <c r="E31" s="29" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="E32" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="22" t="s">
+        <v>583</v>
+      </c>
       <c r="E33" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>584</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="E36" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="E37" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="E34" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>592</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="E37" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="22" t="s">
+      <c r="E38" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="E40" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="E41" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="E42" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="52" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" t="s">
-        <v>579</v>
+    <row r="43" spans="2:6">
+      <c r="E43" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="E44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="E45" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="E46" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="E47" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="E48" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6">
+      <c r="E55" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="52" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="52" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6">
+      <c r="E64" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="52" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="E69" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6">
+      <c r="E71" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="E72" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6">
+      <c r="E73" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6">
+      <c r="E74" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6">
+      <c r="E75" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6">
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="52" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6">
+      <c r="E77" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="52" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6">
+      <c r="E78" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6">
+      <c r="E79" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6">
+      <c r="E80" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="52"/>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6">
+      <c r="E83" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="E84" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6">
+      <c r="E85" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6">
+      <c r="E86" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6">
+      <c r="E87" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6">
+      <c r="E88" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6">
+      <c r="E89" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" s="52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6">
+      <c r="E91" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
+      <c r="E92" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6">
+      <c r="E93" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="52" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6">
+      <c r="E94" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="52" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6">
+      <c r="E95" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F95" s="52" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6">
+      <c r="E96" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F96" s="52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F97" s="52" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="E98" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" s="52" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6">
+      <c r="E99" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F99" s="52"/>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="E100" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="E101" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" s="52" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="E102" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F102" s="52" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F103" s="52" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="E104" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="F104" s="52" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="E105" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F105" s="52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6">
+      <c r="E106" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="F106" s="52" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6">
+      <c r="E107" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" s="52" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="E108" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F108" s="52" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6">
+      <c r="E109" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F109" s="52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6">
+      <c r="E110" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F110" s="52"/>
+    </row>
+    <row r="111" spans="5:6">
+      <c r="E111" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F111" s="34"/>
+    </row>
+    <row r="112" spans="5:6">
+      <c r="E112" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F112" s="34" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6">
+      <c r="E113" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F113" s="34"/>
+    </row>
+    <row r="114" spans="5:6">
+      <c r="E114" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F114" s="52" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6">
+      <c r="E115" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="F115" s="34" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6">
+      <c r="E116" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="F116" s="34" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6">
+      <c r="E117" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="52"/>
+    </row>
+    <row r="118" spans="5:6">
+      <c r="E118" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="F118" s="34" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6">
+      <c r="E119" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6">
+      <c r="E120" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6">
+      <c r="E121" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="F121" s="52" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6">
+      <c r="E122" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F122" s="52"/>
+    </row>
+    <row r="123" spans="5:6">
+      <c r="E123" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F123" s="52" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6">
+      <c r="E124" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6">
+      <c r="E125" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="F125" s="34" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6">
+      <c r="E126" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F126" s="52" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6">
+      <c r="E127" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F127" s="52" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6">
+      <c r="E128" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F128" s="52" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F129" s="52" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6">
+      <c r="E131" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6">
+      <c r="E132" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F132" s="52" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6">
+      <c r="E133" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F133" s="34" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6">
+      <c r="E134" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F134" s="52" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6">
+      <c r="E135" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F135" s="52" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6">
+      <c r="E136" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6">
+      <c r="E137" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F137" s="52" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6">
+      <c r="E138" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F138" s="52"/>
+    </row>
+    <row r="139" spans="5:6">
+      <c r="E139" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F139" s="34" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6">
+      <c r="E140" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F140" s="34" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6">
+      <c r="E141" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F141" s="34" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6">
+      <c r="E142" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F142" s="34" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -8247,537 +10232,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" ht="45">
-      <c r="B2" s="25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="25">
-      <c r="B4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="E4" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="K4" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="N4" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="O4" s="33"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" t="s">
-        <v>313</v>
-      </c>
-      <c r="H5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="N5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="K7" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" t="s">
-        <v>416</v>
-      </c>
-      <c r="E9" t="s">
-        <v>416</v>
-      </c>
-      <c r="K9" t="s">
-        <v>280</v>
-      </c>
-      <c r="N9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" t="s">
-        <v>567</v>
-      </c>
-      <c r="K10" t="s">
-        <v>316</v>
-      </c>
-      <c r="N10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" t="s">
-        <v>310</v>
-      </c>
-      <c r="K11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C19" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" t="s">
-        <v>292</v>
-      </c>
-      <c r="H19" t="s">
-        <v>381</v>
-      </c>
-      <c r="I19" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" t="s">
-        <v>375</v>
-      </c>
-      <c r="L19" t="s">
-        <v>377</v>
-      </c>
-      <c r="N19" t="s">
-        <v>376</v>
-      </c>
-      <c r="O19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="H20" t="s">
-        <v>382</v>
-      </c>
-      <c r="I20" t="s">
-        <v>292</v>
-      </c>
-      <c r="N20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="N21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H23" t="s">
-        <v>378</v>
-      </c>
-      <c r="I23" t="s">
-        <v>380</v>
-      </c>
-      <c r="K23" t="s">
-        <v>291</v>
-      </c>
-      <c r="L23" t="s">
-        <v>289</v>
-      </c>
-      <c r="N23" t="s">
-        <v>294</v>
-      </c>
-      <c r="O23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="K24" t="s">
-        <v>317</v>
-      </c>
-      <c r="L24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25" t="s">
-        <v>349</v>
-      </c>
-      <c r="F25" t="s">
-        <v>289</v>
-      </c>
-      <c r="K25" t="s">
-        <v>318</v>
-      </c>
-      <c r="L25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" t="s">
-        <v>289</v>
-      </c>
-      <c r="E26" t="s">
-        <v>355</v>
-      </c>
-      <c r="F26" t="s">
-        <v>289</v>
-      </c>
-      <c r="K26" t="s">
-        <v>570</v>
-      </c>
-      <c r="L26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="K27" t="s">
-        <v>320</v>
-      </c>
-      <c r="L27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="24"/>
-      <c r="K28" t="s">
-        <v>298</v>
-      </c>
-      <c r="L28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="K29" t="s">
-        <v>299</v>
-      </c>
-      <c r="L29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="24"/>
-      <c r="K30" t="s">
-        <v>321</v>
-      </c>
-      <c r="L30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="24"/>
-      <c r="K31" t="s">
-        <v>322</v>
-      </c>
-      <c r="L31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="24"/>
-      <c r="K32" t="s">
-        <v>382</v>
-      </c>
-      <c r="L32" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="24"/>
-      <c r="K33" t="s">
-        <v>381</v>
-      </c>
-      <c r="L33" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="24"/>
-    </row>
-    <row r="35" spans="2:14" ht="120">
-      <c r="B35" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="N35" s="42" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="24"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="24"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="24"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="N39" s="23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="24"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="24"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M60:N70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="60" spans="13:13">
-      <c r="M60" s="22" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="62" spans="13:13">
-      <c r="M62" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="63" spans="13:13">
-      <c r="M63" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="64" spans="13:13">
-      <c r="M64" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" s="62"/>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" s="62"/>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" s="62"/>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" s="62"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8889,6 +10348,9 @@
       <c r="K2" s="50">
         <v>8</v>
       </c>
+      <c r="L2" t="s">
+        <v>591</v>
+      </c>
       <c r="M2" s="43" t="s">
         <v>555</v>
       </c>
@@ -8927,7 +10389,7 @@
       </c>
       <c r="Z2" s="43" t="str">
         <f>M2&amp;B2&amp;N2&amp;C2&amp;O2&amp;D2&amp;P2&amp;E2&amp;Q2&amp;F2&amp;R2&amp;G2&amp;S2&amp;H2&amp;T2&amp;I2&amp;U2&amp;L2&amp;V2&amp;J2&amp;W2&amp;K2&amp;X2</f>
-        <v>Whiskey.create(name: "1792 Ridgemont Reserve", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 3, price: 45, abv: 0.47, pic1: "", event_id: 18, member_id: 8)</v>
+        <v>Whiskey.create(name: "1792 Ridgemont Reserve", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 3, price: 45, abv: 0.47, pic1: "https://img.thewhiskyexchange.com/540/brbon_rid1.jpg", event_id: 18, member_id: 8)</v>
       </c>
       <c r="AB2" s="55"/>
     </row>
@@ -8965,7 +10427,9 @@
       <c r="K3" s="51">
         <v>9</v>
       </c>
-      <c r="L3" s="52"/>
+      <c r="L3" t="s">
+        <v>592</v>
+      </c>
       <c r="M3" s="43" t="s">
         <v>555</v>
       </c>
@@ -9004,7 +10468,7 @@
       </c>
       <c r="Z3" s="43" t="str">
         <f t="shared" ref="Z3:Z66" si="0">M3&amp;B3&amp;N3&amp;C3&amp;O3&amp;D3&amp;P3&amp;E3&amp;Q3&amp;F3&amp;R3&amp;G3&amp;S3&amp;H3&amp;T3&amp;I3&amp;U3&amp;L3&amp;V3&amp;J3&amp;W3&amp;K3&amp;X3</f>
-        <v>Whiskey.create(name: "Aberlour Abunah", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 70, abv: 0.4, pic1: "", event_id: 1, member_id: 9)</v>
+        <v>Whiskey.create(name: "Aberlour Abunah", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 70, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/900/ablob.non27.jpg", event_id: 1, member_id: 9)</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -9041,7 +10505,9 @@
       <c r="K4" s="51">
         <v>4</v>
       </c>
-      <c r="L4" s="52"/>
+      <c r="L4" t="s">
+        <v>593</v>
+      </c>
       <c r="M4" s="43" t="s">
         <v>555</v>
       </c>
@@ -9080,7 +10546,7 @@
       </c>
       <c r="Z4" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Angels Envy", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 6, price: 45, abv: 0.433, pic1: "", event_id: 16, member_id: 4)</v>
+        <v>Whiskey.create(name: "Angels Envy", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 6, price: 45, abv: 0.433, pic1: "https://img.thewhiskyexchange.com/540/brbon_ang2.jpg", event_id: 16, member_id: 4)</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -9117,7 +10583,9 @@
       <c r="K5" s="51">
         <v>11</v>
       </c>
-      <c r="L5" s="52"/>
+      <c r="L5" t="s">
+        <v>594</v>
+      </c>
       <c r="M5" s="43" t="s">
         <v>555</v>
       </c>
@@ -9156,7 +10624,7 @@
       </c>
       <c r="Z5" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Ardbeg 10", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 45, abv: 0.46, pic1: "", event_id: 7, member_id: 11)</v>
+        <v>Whiskey.create(name: "Ardbeg 10", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 45, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/900/abgob.10yov1.jpg", event_id: 7, member_id: 11)</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -9190,7 +10658,9 @@
       <c r="K6" s="51">
         <v>4</v>
       </c>
-      <c r="L6" s="52"/>
+      <c r="L6" t="s">
+        <v>595</v>
+      </c>
       <c r="M6" s="43" t="s">
         <v>555</v>
       </c>
@@ -9229,7 +10699,7 @@
       </c>
       <c r="Z6" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Ardbeg Alligator", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 120, abv: 0.512, pic1: "", event_id: 12, member_id: 4)</v>
+        <v>Whiskey.create(name: "Ardbeg Alligator", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 120, abv: 0.512, pic1: "https://img.thewhiskyexchange.com/540/abgob.non10.jpg", event_id: 12, member_id: 4)</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -9266,7 +10736,9 @@
       <c r="K7" s="51">
         <v>3</v>
       </c>
-      <c r="L7" s="52"/>
+      <c r="L7" t="s">
+        <v>596</v>
+      </c>
       <c r="M7" s="43" t="s">
         <v>555</v>
       </c>
@@ -9305,7 +10777,7 @@
       </c>
       <c r="Z7" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Ardbeg Corrywreckan", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 75, abv: 0.57, pic1: "", event_id: 17, member_id: 3)</v>
+        <v>Whiskey.create(name: "Ardbeg Corrywreckan", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 75, abv: 0.57, pic1: "https://img.thewhiskyexchange.com/540/abgob.non2.jpg", event_id: 17, member_id: 3)</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -9342,7 +10814,9 @@
       <c r="K8" s="51">
         <v>7</v>
       </c>
-      <c r="L8" s="52"/>
+      <c r="L8" t="s">
+        <v>597</v>
+      </c>
       <c r="M8" s="43" t="s">
         <v>555</v>
       </c>
@@ -9381,7 +10855,7 @@
       </c>
       <c r="Z8" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Ardbeg Supernova 2010", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 2, price: 160, abv: 0.55, pic1: "", event_id: 12, member_id: 7)</v>
+        <v>Whiskey.create(name: "Ardbeg Supernova 2010", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 2, price: 160, abv: 0.55, pic1: "https://img.thewhiskyexchange.com/900/abgob.non8.jpg", event_id: 12, member_id: 7)</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -9418,7 +10892,9 @@
       <c r="K9" s="51">
         <v>7</v>
       </c>
-      <c r="L9" s="52"/>
+      <c r="L9" t="s">
+        <v>594</v>
+      </c>
       <c r="M9" s="43" t="s">
         <v>555</v>
       </c>
@@ -9457,7 +10933,7 @@
       </c>
       <c r="Z9" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Ardbeg Uigeadail", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 65, abv: 0.542, pic1: "", event_id: 11, member_id: 7)</v>
+        <v>Whiskey.create(name: "Ardbeg Uigeadail", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 65, abv: 0.542, pic1: "https://img.thewhiskyexchange.com/900/abgob.10yov1.jpg", event_id: 11, member_id: 7)</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -9494,7 +10970,9 @@
       <c r="K10" s="51">
         <v>6</v>
       </c>
-      <c r="L10" s="34"/>
+      <c r="L10" t="s">
+        <v>598</v>
+      </c>
       <c r="M10" s="43" t="s">
         <v>555</v>
       </c>
@@ -9533,7 +11011,7 @@
       </c>
       <c r="Z10" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Ardmore", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 9, price: 35, abv: 0.46, pic1: "", event_id: 7, member_id: 6)</v>
+        <v>Whiskey.create(name: "Ardmore", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 9, price: 35, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/540/ardob.non.jpg", event_id: 7, member_id: 6)</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -9570,7 +11048,9 @@
       <c r="K11" s="51">
         <v>3</v>
       </c>
-      <c r="L11" s="34"/>
+      <c r="L11" t="s">
+        <v>599</v>
+      </c>
       <c r="M11" s="43" t="s">
         <v>555</v>
       </c>
@@ -9609,7 +11089,7 @@
       </c>
       <c r="Z11" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Arran Malt", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 73, abv: 0.46, pic1: "", event_id: 12, member_id: 3)</v>
+        <v>Whiskey.create(name: "Arran Malt", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 73, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/900/arrob.non35.jpg", event_id: 12, member_id: 3)</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -9646,7 +11126,9 @@
       <c r="K12" s="51">
         <v>1</v>
       </c>
-      <c r="L12" s="52"/>
+      <c r="L12" t="s">
+        <v>600</v>
+      </c>
       <c r="M12" s="43" t="s">
         <v>555</v>
       </c>
@@ -9685,7 +11167,7 @@
       </c>
       <c r="Z12" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Auchentoshan", region: "Lowland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 30, abv: 0.4, pic1: "", event_id: 1, member_id: 1)</v>
+        <v>Whiskey.create(name: "Auchentoshan", region: "Lowland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 30, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/900/aucob.non3.jpg", event_id: 1, member_id: 1)</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -9875,7 +11357,9 @@
       <c r="K15" s="51">
         <v>2</v>
       </c>
-      <c r="L15" s="52"/>
+      <c r="L15" s="52" t="s">
+        <v>602</v>
+      </c>
       <c r="M15" s="43" t="s">
         <v>555</v>
       </c>
@@ -9914,7 +11398,7 @@
       </c>
       <c r="Z15" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Balcones 1", region: "Texas", country: "USA", type: "Corn", malt: "Single Malt", age: , price: 50, abv: 0.505, pic1: "", event_id: 16, member_id: 2)</v>
+        <v>Whiskey.create(name: "Balcones 1", region: "Texas", country: "USA", type: "Corn", malt: "Single Malt", age: , price: 50, abv: 0.505, pic1: "https://img.thewhiskyexchange.com/900/brbon_bal4.jpg", event_id: 16, member_id: 2)</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -10030,7 +11514,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>405</v>
+        <v>601</v>
       </c>
       <c r="M17" s="43" t="s">
         <v>555</v>
@@ -10070,7 +11554,7 @@
       </c>
       <c r="Z17" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Balvenie Caribbbean Rum Cask", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.43, pic1: "https://s-media-cache-ak0.pinimg.com/236x/df/80/8c/df808c449a2e8ade96ef396359d97987.jpg", event_id: 11, member_id: 3)</v>
+        <v>Whiskey.create(name: "Balvenie Caribbbean Rum Cask", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/balob.14yov4.jpg", event_id: 11, member_id: 3)</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -10107,7 +11591,9 @@
       <c r="K18" s="51">
         <v>2</v>
       </c>
-      <c r="L18" s="52"/>
+      <c r="L18" s="52" t="s">
+        <v>603</v>
+      </c>
       <c r="M18" s="43" t="s">
         <v>555</v>
       </c>
@@ -10146,7 +11632,7 @@
       </c>
       <c r="Z18" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Basil Haydens", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 8, price: 45, abv: 0.4, pic1: "", event_id: 16, member_id: 2)</v>
+        <v>Whiskey.create(name: "Basil Haydens", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 8, price: 45, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/brbon_bas1.jpg", event_id: 16, member_id: 2)</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -10339,6 +11825,9 @@
       <c r="K21" s="50">
         <v>8</v>
       </c>
+      <c r="L21" s="54" t="s">
+        <v>604</v>
+      </c>
       <c r="M21" s="43" t="s">
         <v>555</v>
       </c>
@@ -10377,7 +11866,7 @@
       </c>
       <c r="Z21" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bernheim Original Small Batch Wheated", region: "Kentucky", country: "USA", type: "Wheat", malt: "Blend", age: 3, price: 50, abv: 0.45, pic1: "", event_id: 18, member_id: 8)</v>
+        <v>Whiskey.create(name: "Bernheim Original Small Batch Wheated", region: "Kentucky", country: "USA", type: "Wheat", malt: "Blend", age: 3, price: 50, abv: 0.45, pic1: "https://img.thewhiskyexchange.com/540/brbon_ber1.jpg", event_id: 18, member_id: 8)</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -10414,7 +11903,9 @@
       <c r="K22" s="51">
         <v>1</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="52" t="s">
+        <v>605</v>
+      </c>
       <c r="M22" s="43" t="s">
         <v>555</v>
       </c>
@@ -10453,7 +11944,7 @@
       </c>
       <c r="Z22" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bowmore 1996 Non-Chill Filtered David MacMurray", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 75, abv: 0.47, pic1: "", event_id: 17, member_id: 1)</v>
+        <v>Whiskey.create(name: "Bowmore 1996 Non-Chill Filtered David MacMurray", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 75, abv: 0.47, pic1: "https://img.thewhiskyexchange.com/900/bowob.non42.jpg", event_id: 17, member_id: 1)</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -10490,7 +11981,9 @@
       <c r="K23" s="51">
         <v>1</v>
       </c>
-      <c r="L23" s="52"/>
+      <c r="L23" s="52" t="s">
+        <v>606</v>
+      </c>
       <c r="M23" s="43" t="s">
         <v>555</v>
       </c>
@@ -10529,7 +12022,7 @@
       </c>
       <c r="Z23" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bowmore Feis Ilse 2009", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 9, price: 110, abv: 0.571, pic1: "", event_id: 11, member_id: 1)</v>
+        <v>Whiskey.create(name: "Bowmore Feis Ilse 2009", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 9, price: 110, abv: 0.571, pic1: "https://img.thewhiskyexchange.com/540/bowob.1999v1.jpg", event_id: 11, member_id: 1)</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -10566,7 +12059,9 @@
       <c r="K24" s="51">
         <v>5</v>
       </c>
-      <c r="L24" s="52"/>
+      <c r="L24" s="52" t="s">
+        <v>607</v>
+      </c>
       <c r="M24" s="43" t="s">
         <v>555</v>
       </c>
@@ -10605,7 +12100,7 @@
       </c>
       <c r="Z24" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bowmore Rattray 1996 Bottling", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 100, abv: 0.55, pic1: "", event_id: 17, member_id: 5)</v>
+        <v>Whiskey.create(name: "Bowmore Rattray 1996 Bottling", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 100, abv: 0.55, pic1: "https://img.thewhiskyexchange.com/540/bowob.12yov14.jpg", event_id: 17, member_id: 5)</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -10876,7 +12371,9 @@
       <c r="K28" s="51">
         <v>8</v>
       </c>
-      <c r="L28" s="52"/>
+      <c r="L28" s="52" t="s">
+        <v>412</v>
+      </c>
       <c r="M28" s="43" t="s">
         <v>555</v>
       </c>
@@ -10915,7 +12412,7 @@
       </c>
       <c r="Z28" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bruichladdich 2nd Edition", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 80, abv: 0.46, pic1: "", event_id: 16, member_id: 8)</v>
+        <v>Whiskey.create(name: "Bruichladdich 2nd Edition", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 80, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/540/bruob.15yo.jpg", event_id: 16, member_id: 8)</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -10952,7 +12449,9 @@
       <c r="K29" s="51">
         <v>7</v>
       </c>
-      <c r="L29" s="52"/>
+      <c r="L29" s="52" t="s">
+        <v>612</v>
+      </c>
       <c r="M29" s="43" t="s">
         <v>555</v>
       </c>
@@ -10991,7 +12490,7 @@
       </c>
       <c r="Z29" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bruichladdich Bourbon Aged Cask", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 90, abv: 0.46, pic1: "", event_id: 15, member_id: 7)</v>
+        <v>Whiskey.create(name: "Bruichladdich Bourbon Aged Cask", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 90, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/540/bruob.16yo.jpg", event_id: 15, member_id: 7)</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -11028,7 +12527,9 @@
       <c r="K30" s="51">
         <v>1</v>
       </c>
-      <c r="L30" s="52"/>
+      <c r="L30" s="52" t="s">
+        <v>613</v>
+      </c>
       <c r="M30" s="43" t="s">
         <v>555</v>
       </c>
@@ -11067,7 +12568,7 @@
       </c>
       <c r="Z30" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bruichladdich Ochdamhmor", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 5, price: 160, abv: 0.59, pic1: "", event_id: 11, member_id: 1)</v>
+        <v>Whiskey.create(name: "Bruichladdich Ochdamhmor", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 5, price: 160, abv: 0.59, pic1: "https://houseofwhiskey.co.nz/wp-content/uploads/whiskey_images/Octomore_5.jpg", event_id: 11, member_id: 1)</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -11101,7 +12602,9 @@
       <c r="K31" s="51">
         <v>1</v>
       </c>
-      <c r="L31" s="52"/>
+      <c r="L31" s="52" t="s">
+        <v>614</v>
+      </c>
       <c r="M31" s="43" t="s">
         <v>555</v>
       </c>
@@ -11140,7 +12643,7 @@
       </c>
       <c r="Z31" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bruichladdich Port Charlotte Peat Project", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 70, abv: 0.46, pic1: "", event_id: 16, member_id: 1)</v>
+        <v>Whiskey.create(name: "Bruichladdich Port Charlotte Peat Project", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 70, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/540/pclob.non2.jpg", event_id: 16, member_id: 1)</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -11177,7 +12680,9 @@
       <c r="K32" s="51">
         <v>7</v>
       </c>
-      <c r="L32" s="52"/>
+      <c r="L32" s="52" t="s">
+        <v>615</v>
+      </c>
       <c r="M32" s="43" t="s">
         <v>555</v>
       </c>
@@ -11216,7 +12721,7 @@
       </c>
       <c r="Z32" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Buffalo Trace Experimental #7 Double Char", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 15, price: 60, abv: 0.45, pic1: "", event_id: 16, member_id: 7)</v>
+        <v>Whiskey.create(name: "Buffalo Trace Experimental #7 Double Char", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 15, price: 60, abv: 0.45, pic1: "https://img.thewhiskyexchange.com/900/brbon_buf13.jpg", event_id: 16, member_id: 7)</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -11253,7 +12758,9 @@
       <c r="K33" s="51">
         <v>1</v>
       </c>
-      <c r="L33" s="52"/>
+      <c r="L33" s="52" t="s">
+        <v>616</v>
+      </c>
       <c r="M33" s="43" t="s">
         <v>555</v>
       </c>
@@ -11292,7 +12799,7 @@
       </c>
       <c r="Z33" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bunnahabain 12", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 45, abv: 0.4, pic1: "", event_id: 8, member_id: 1)</v>
+        <v>Whiskey.create(name: "Bunnahabain 12", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 45, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/bunob.12yov3.jpg", event_id: 8, member_id: 1)</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -11323,7 +12830,9 @@
       <c r="K34" s="51">
         <v>7</v>
       </c>
-      <c r="L34" s="52"/>
+      <c r="L34" s="52" t="s">
+        <v>617</v>
+      </c>
       <c r="M34" s="43" t="s">
         <v>555</v>
       </c>
@@ -11362,7 +12871,7 @@
       </c>
       <c r="Z34" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Bushmills Black Bush", region: "", country: "Ireland", type: "Irish", malt: "Blend", age: , price: 30, abv: 0.4, pic1: "", event_id: 4, member_id: 7)</v>
+        <v>Whiskey.create(name: "Bushmills Black Bush", region: "", country: "Ireland", type: "Irish", malt: "Blend", age: , price: 30, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/irish_bus2.jpg", event_id: 4, member_id: 7)</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -11399,7 +12908,9 @@
       <c r="K35" s="51">
         <v>5</v>
       </c>
-      <c r="L35" s="52"/>
+      <c r="L35" s="52" t="s">
+        <v>619</v>
+      </c>
       <c r="M35" s="43" t="s">
         <v>555</v>
       </c>
@@ -11438,7 +12949,7 @@
       </c>
       <c r="Z35" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Caol Ila 11", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 11, price: 60, abv: 0.43, pic1: "", event_id: 1, member_id: 5)</v>
+        <v>Whiskey.create(name: "Caol Ila 11", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 11, price: 60, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/cilob.12yov4.jpg", event_id: 1, member_id: 5)</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -11475,7 +12986,9 @@
       <c r="K36" s="51">
         <v>5</v>
       </c>
-      <c r="L36" s="52"/>
+      <c r="L36" s="52" t="s">
+        <v>619</v>
+      </c>
       <c r="M36" s="43" t="s">
         <v>555</v>
       </c>
@@ -11514,7 +13027,7 @@
       </c>
       <c r="Z36" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Caol Ila 12", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 60, abv: 0.43, pic1: "", event_id: 3, member_id: 5)</v>
+        <v>Whiskey.create(name: "Caol Ila 12", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 60, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/cilob.12yov4.jpg", event_id: 3, member_id: 5)</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -11551,7 +13064,9 @@
       <c r="K37" s="51">
         <v>2</v>
       </c>
-      <c r="L37" s="34"/>
+      <c r="L37" s="34" t="s">
+        <v>618</v>
+      </c>
       <c r="M37" s="43" t="s">
         <v>555</v>
       </c>
@@ -11590,7 +13105,7 @@
       </c>
       <c r="Z37" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Caol Ila 18", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 75, abv: 0.43, pic1: "", event_id: 3, member_id: 2)</v>
+        <v>Whiskey.create(name: "Caol Ila 18", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 75, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/cilob.18yo.jpg", event_id: 3, member_id: 2)</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -11627,7 +13142,9 @@
       <c r="K38" s="51">
         <v>7</v>
       </c>
-      <c r="L38" s="52"/>
+      <c r="L38" s="52" t="s">
+        <v>620</v>
+      </c>
       <c r="M38" s="43" t="s">
         <v>555</v>
       </c>
@@ -11666,7 +13183,7 @@
       </c>
       <c r="Z38" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Caol Ila Frisky Whisky Unchillfiltered 2010 Bottling", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 25, price: 150, abv: 0.54, pic1: "", event_id: 15, member_id: 7)</v>
+        <v>Whiskey.create(name: "Caol Ila Frisky Whisky Unchillfiltered 2010 Bottling", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 25, price: 150, abv: 0.54, pic1: "https://img.thewhiskyexchange.com/540/cilind1983v1.jpg", event_id: 15, member_id: 7)</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -11703,7 +13220,9 @@
       <c r="K39" s="51">
         <v>1</v>
       </c>
-      <c r="L39" s="52"/>
+      <c r="L39" s="52" t="s">
+        <v>621</v>
+      </c>
       <c r="M39" s="43" t="s">
         <v>555</v>
       </c>
@@ -11742,7 +13261,7 @@
       </c>
       <c r="Z39" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Carn Mor Cask Non-Chill Filtered", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 60, abv: 0.46, pic1: "", event_id: 14, member_id: 1)</v>
+        <v>Whiskey.create(name: "Carn Mor Cask Non-Chill Filtered", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 60, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/900/bnvcrn1998.jpg", event_id: 14, member_id: 1)</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -11780,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="52" t="s">
-        <v>419</v>
+        <v>610</v>
       </c>
       <c r="M40" s="43" t="s">
         <v>555</v>
@@ -11820,7 +13339,7 @@
       </c>
       <c r="Z40" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Classics of Islay Lagavulin", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 55, abv: 0.54, pic1: "http://www.whiskyhaus.de/media/catalog/product/cache/1/image/9df78eab33525d08d6e5fb8d27136e95/1/9/1963_classic_of_islay_-_cask_nos._530_-_special_selection_-_bottled_2014_2_1.jpg", event_id: 5, member_id: 1)</v>
+        <v>Whiskey.create(name: "Classics of Islay Lagavulin", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 55, abv: 0.54, pic1: "https://img.thewhiskyexchange.com/900/elem_lg3.jpg", event_id: 5, member_id: 1)</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -11858,7 +13377,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>418</v>
+        <v>611</v>
       </c>
       <c r="M41" s="43" t="s">
         <v>555</v>
@@ -11898,7 +13417,7 @@
       </c>
       <c r="Z41" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Classics of Islay Lagavulin", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 26, price: 75, abv: 0.54, pic1: "http://www.whiskyisrael.co.il/wp-content/uploads/2011/01/classic-of-islay.jpg", event_id: 7, member_id: 3)</v>
+        <v>Whiskey.create(name: "Classics of Islay Lagavulin", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 26, price: 75, abv: 0.54, pic1: "https://img.thewhiskyexchange.com/900/elem_lg5.jpg", event_id: 7, member_id: 3)</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -11929,7 +13448,9 @@
       <c r="K42" s="51">
         <v>4</v>
       </c>
-      <c r="L42" s="52"/>
+      <c r="L42" s="52" t="s">
+        <v>625</v>
+      </c>
       <c r="M42" s="43" t="s">
         <v>555</v>
       </c>
@@ -11968,7 +13489,7 @@
       </c>
       <c r="Z42" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Clontarf", region: "", country: "Ireland", type: "Irish", malt: "Blend", age: , price: 20, abv: 0.4, pic1: "", event_id: 4, member_id: 4)</v>
+        <v>Whiskey.create(name: "Clontarf", region: "", country: "Ireland", type: "Irish", malt: "Blend", age: , price: 20, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/irish_clo3.jpg", event_id: 4, member_id: 4)</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -12005,7 +13526,9 @@
       <c r="K43" s="51">
         <v>12</v>
       </c>
-      <c r="L43" s="34"/>
+      <c r="L43" s="34" t="s">
+        <v>626</v>
+      </c>
       <c r="M43" s="43" t="s">
         <v>555</v>
       </c>
@@ -12044,7 +13567,7 @@
       </c>
       <c r="Z43" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Clynelish", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.46, pic1: "", event_id: 16, member_id: 12)</v>
+        <v>Whiskey.create(name: "Clynelish", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/900/clyob.14yov1.jpg", event_id: 16, member_id: 12)</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -12081,7 +13604,9 @@
       <c r="K44" s="51">
         <v>3</v>
       </c>
-      <c r="L44" s="52"/>
+      <c r="L44" s="52" t="s">
+        <v>627</v>
+      </c>
       <c r="M44" s="43" t="s">
         <v>555</v>
       </c>
@@ -12120,7 +13645,7 @@
       </c>
       <c r="Z44" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Colonel E.H. Taylor", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Single Malt", age: 6, price: 65, abv: 0.5, pic1: "", event_id: 16, member_id: 3)</v>
+        <v>Whiskey.create(name: "Colonel E.H. Taylor", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Single Malt", age: 6, price: 65, abv: 0.5, pic1: "https://img.thewhiskyexchange.com/540/brbon_eht3.jpg", event_id: 16, member_id: 3)</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -12154,7 +13679,9 @@
       <c r="K45" s="51">
         <v>1</v>
       </c>
-      <c r="L45" s="52"/>
+      <c r="L45" s="52" t="s">
+        <v>628</v>
+      </c>
       <c r="M45" s="43" t="s">
         <v>555</v>
       </c>
@@ -12193,7 +13720,7 @@
       </c>
       <c r="Z45" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Connemara", region: "", country: "Ireland", type: "Irish (peated)", malt: "Single Malt", age: 10, price: 35, abv: 0.4, pic1: "", event_id: 4, member_id: 1)</v>
+        <v>Whiskey.create(name: "Connemara", region: "", country: "Ireland", type: "Irish (peated)", malt: "Single Malt", age: 10, price: 35, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/irish_con2.jpg", event_id: 4, member_id: 1)</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -12230,7 +13757,9 @@
       <c r="K46" s="51">
         <v>5</v>
       </c>
-      <c r="L46" s="52"/>
+      <c r="L46" s="52" t="s">
+        <v>629</v>
+      </c>
       <c r="M46" s="43" t="s">
         <v>555</v>
       </c>
@@ -12269,7 +13798,7 @@
       </c>
       <c r="Z46" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Cragganmore", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 50, abv: 0.4, pic1: "", event_id: 3, member_id: 5)</v>
+        <v>Whiskey.create(name: "Cragganmore", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 50, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/900/cgmob.12yov2.jpg", event_id: 3, member_id: 5)</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -12382,7 +13911,9 @@
       <c r="K48" s="51">
         <v>3</v>
       </c>
-      <c r="L48" s="34"/>
+      <c r="L48" s="34" t="s">
+        <v>630</v>
+      </c>
       <c r="M48" s="43" t="s">
         <v>555</v>
       </c>
@@ -12421,7 +13952,7 @@
       </c>
       <c r="Z48" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Dalmore", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 30, abv: 0.4, pic1: "", event_id: 1, member_id: 3)</v>
+        <v>Whiskey.create(name: "Dalmore", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 30, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/dlmob.15yo.jpg", event_id: 1, member_id: 3)</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -12458,7 +13989,9 @@
       <c r="K49" s="51">
         <v>18</v>
       </c>
-      <c r="L49" s="52"/>
+      <c r="L49" s="52" t="s">
+        <v>631</v>
+      </c>
       <c r="M49" s="43" t="s">
         <v>555</v>
       </c>
@@ -12497,7 +14030,7 @@
       </c>
       <c r="Z49" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Dalwhinnie", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 60, abv: 0.43, pic1: "", event_id: 6, member_id: 18)</v>
+        <v>Whiskey.create(name: "Dalwhinnie", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 60, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/dalob.15yov1.jpg", event_id: 6, member_id: 18)</v>
       </c>
     </row>
     <row r="50" spans="1:26">
@@ -12534,7 +14067,9 @@
       <c r="K50" s="51">
         <v>6</v>
       </c>
-      <c r="L50" s="34"/>
+      <c r="L50" s="34" t="s">
+        <v>632</v>
+      </c>
       <c r="M50" s="43" t="s">
         <v>555</v>
       </c>
@@ -12573,7 +14108,7 @@
       </c>
       <c r="Z50" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Deanston", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 36, abv: 0.463, pic1: "", event_id: 9, member_id: 6)</v>
+        <v>Whiskey.create(name: "Deanston", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 36, abv: 0.463, pic1: "https://img.thewhiskyexchange.com/900/dstob.non3.jpg", event_id: 9, member_id: 6)</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -12610,7 +14145,9 @@
       <c r="K51" s="51">
         <v>9</v>
       </c>
-      <c r="L51" s="34"/>
+      <c r="L51" s="34" t="s">
+        <v>633</v>
+      </c>
       <c r="M51" s="43" t="s">
         <v>555</v>
       </c>
@@ -12649,7 +14186,7 @@
       </c>
       <c r="Z51" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Edradour", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 60, abv: 0.4, pic1: "", event_id: 3, member_id: 9)</v>
+        <v>Whiskey.create(name: "Edradour", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 60, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/900/edrob.12yo.jpg", event_id: 3, member_id: 9)</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -12686,7 +14223,9 @@
       <c r="K52" s="51">
         <v>4</v>
       </c>
-      <c r="L52" s="52"/>
+      <c r="L52" s="52" t="s">
+        <v>634</v>
+      </c>
       <c r="M52" s="43" t="s">
         <v>555</v>
       </c>
@@ -12725,7 +14264,7 @@
       </c>
       <c r="Z52" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Ellenstown", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 60, abv: 0.46, pic1: "", event_id: 3, member_id: 4)</v>
+        <v>Whiskey.create(name: "Ellenstown", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 60, abv: 0.46, pic1: "http://www.jewmalt.com/wp-content/uploads/2010/05/1023042x.jpg", event_id: 3, member_id: 4)</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -12762,7 +14301,9 @@
       <c r="K53" s="51">
         <v>7</v>
       </c>
-      <c r="L53" s="52"/>
+      <c r="L53" s="52" t="s">
+        <v>635</v>
+      </c>
       <c r="M53" s="43" t="s">
         <v>555</v>
       </c>
@@ -12801,7 +14342,7 @@
       </c>
       <c r="Z53" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Four Roses Single Barrel", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 3, price: 40, abv: 0.5, pic1: "", event_id: 13, member_id: 7)</v>
+        <v>Whiskey.create(name: "Four Roses Single Barrel", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 3, price: 40, abv: 0.5, pic1: "https://img.thewhiskyexchange.com/900/brbon_fou9.jpg", event_id: 13, member_id: 7)</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -13070,7 +14611,9 @@
       <c r="K57" s="51">
         <v>15</v>
       </c>
-      <c r="L57" s="34"/>
+      <c r="L57" s="34" t="s">
+        <v>660</v>
+      </c>
       <c r="M57" s="43" t="s">
         <v>555</v>
       </c>
@@ -13109,7 +14652,7 @@
       </c>
       <c r="Z57" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Glenfarclas 12", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 35, abv: 0.43, pic1: "", event_id: 2, member_id: 15)</v>
+        <v>Whiskey.create(name: "Glenfarclas 12", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 35, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/gfcob.12yov1.jpg", event_id: 2, member_id: 15)</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -13146,7 +14689,9 @@
       <c r="K58" s="51">
         <v>3</v>
       </c>
-      <c r="L58" s="34"/>
+      <c r="L58" s="34" t="s">
+        <v>661</v>
+      </c>
       <c r="M58" s="43" t="s">
         <v>555</v>
       </c>
@@ -13185,7 +14730,7 @@
       </c>
       <c r="Z58" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Glengoyne", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 65, abv: 0.43, pic1: "", event_id: 3, member_id: 3)</v>
+        <v>Whiskey.create(name: "Glengoyne", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 65, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/900/ggoob.17yo.jpg", event_id: 3, member_id: 3)</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -13300,7 +14845,9 @@
       <c r="K60" s="51">
         <v>1</v>
       </c>
-      <c r="L60" s="34"/>
+      <c r="L60" s="34" t="s">
+        <v>662</v>
+      </c>
       <c r="M60" s="43" t="s">
         <v>555</v>
       </c>
@@ -13339,7 +14886,7 @@
       </c>
       <c r="Z60" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Glenlivet 12", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 35, abv: 0.4, pic1: "", event_id: 9, member_id: 1)</v>
+        <v>Whiskey.create(name: "Glenlivet 12", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 35, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/glvob.12yov1.jpg", event_id: 9, member_id: 1)</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -13454,7 +15001,9 @@
       <c r="K62" s="51">
         <v>5</v>
       </c>
-      <c r="L62" s="34"/>
+      <c r="L62" s="34" t="s">
+        <v>663</v>
+      </c>
       <c r="M62" s="43" t="s">
         <v>555</v>
       </c>
@@ -13493,7 +15042,7 @@
       </c>
       <c r="Z62" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>Whiskey.create(name: "Glenmorangie Finealta", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 9, price: 120, abv: 0.46, pic1: "", event_id: 17, member_id: 5)</v>
+        <v>Whiskey.create(name: "Glenmorangie Finealta", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 9, price: 120, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/540/gmgob.non29.jpg", event_id: 17, member_id: 5)</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -13835,7 +15384,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="34" t="s">
-        <v>428</v>
+        <v>609</v>
       </c>
       <c r="M67" s="43" t="s">
         <v>555</v>
@@ -13875,7 +15424,7 @@
       </c>
       <c r="Z67" s="43" t="str">
         <f t="shared" ref="Z67:Z118" si="1">M67&amp;B67&amp;N67&amp;C67&amp;O67&amp;D67&amp;P67&amp;E67&amp;Q67&amp;F67&amp;R67&amp;G67&amp;S67&amp;H67&amp;T67&amp;I67&amp;U67&amp;L67&amp;V67&amp;J67&amp;W67&amp;K67&amp;X67</f>
-        <v>Whiskey.create(name: "Highland Park 15", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 50, abv: , pic1: "http://www.bevmo.com/Media/Images/ProductImagesFull/81060.jpg", event_id: 2, member_id: 2)</v>
+        <v>Whiskey.create(name: "Highland Park 15", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 50, abv: , pic1: "https://img.thewhiskyexchange.com/540/hlpob.12yov8.jpg", event_id: 2, member_id: 2)</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -13910,7 +15459,9 @@
       <c r="K68" s="51">
         <v>4</v>
       </c>
-      <c r="L68" s="34"/>
+      <c r="L68" s="34" t="s">
+        <v>608</v>
+      </c>
       <c r="M68" s="43" t="s">
         <v>555</v>
       </c>
@@ -13949,7 +15500,7 @@
       </c>
       <c r="Z68" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Highland Park 18", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 60, abv: , pic1: "", event_id: 6, member_id: 4)</v>
+        <v>Whiskey.create(name: "Highland Park 18", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 60, abv: , pic1: "https://img.thewhiskyexchange.com/540/hlpob.18yov2.jpg", event_id: 6, member_id: 4)</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -13983,7 +15534,9 @@
       <c r="K69" s="51">
         <v>2</v>
       </c>
-      <c r="L69" s="52"/>
+      <c r="L69" s="52" t="s">
+        <v>664</v>
+      </c>
       <c r="M69" s="43" t="s">
         <v>555</v>
       </c>
@@ -14022,7 +15575,7 @@
       </c>
       <c r="Z69" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Hudson Baby Bourbon", region: "New York", country: "USA", type: "Bourbon", malt: "Blend", age: , price: 45, abv: 0.46, pic1: "", event_id: 13, member_id: 2)</v>
+        <v>Whiskey.create(name: "Hudson Baby Bourbon", region: "New York", country: "USA", type: "Bourbon", malt: "Blend", age: , price: 45, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/540/brbon_hud1.jpg", event_id: 13, member_id: 2)</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -14059,7 +15612,9 @@
       <c r="K70" s="51">
         <v>2</v>
       </c>
-      <c r="L70" s="52"/>
+      <c r="L70" s="52" t="s">
+        <v>665</v>
+      </c>
       <c r="M70" s="43" t="s">
         <v>555</v>
       </c>
@@ -14098,7 +15653,7 @@
       </c>
       <c r="Z70" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Hudson Double Charred Whiskey", region: "New York", country: "USA", type: "Bourbon", malt: "Blend", age: 4, price: 50, abv: 0.46, pic1: "", event_id: 18, member_id: 2)</v>
+        <v>Whiskey.create(name: "Hudson Double Charred Whiskey", region: "New York", country: "USA", type: "Bourbon", malt: "Blend", age: 4, price: 50, abv: 0.46, pic1: "http://www.drinkupny.com/v/vspfiles/photos/S1613-2.jpg", event_id: 18, member_id: 2)</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -14133,7 +15688,9 @@
       <c r="K71" s="51">
         <v>20</v>
       </c>
-      <c r="L71" s="52"/>
+      <c r="L71" s="52" t="s">
+        <v>667</v>
+      </c>
       <c r="M71" s="43" t="s">
         <v>555</v>
       </c>
@@ -14172,7 +15729,7 @@
       </c>
       <c r="Z71" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Imperial Signatory", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 61, abv: , pic1: "", event_id: 8, member_id: 20)</v>
+        <v>Whiskey.create(name: "Imperial Signatory", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 61, abv: , pic1: "https://img.thewhiskyexchange.com/900/impsig1995v12.jpg", event_id: 8, member_id: 20)</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -14209,7 +15766,9 @@
       <c r="K72" s="51">
         <v>6</v>
       </c>
-      <c r="L72" s="52"/>
+      <c r="L72" s="52" t="s">
+        <v>666</v>
+      </c>
       <c r="M72" s="43" t="s">
         <v>555</v>
       </c>
@@ -14248,7 +15807,7 @@
       </c>
       <c r="Z72" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Imperial Signatory 1995 Bottling", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 70, abv: 0.43, pic1: "", event_id: 17, member_id: 6)</v>
+        <v>Whiskey.create(name: "Imperial Signatory 1995 Bottling", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 70, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/900/impsig1995v11.jpg", event_id: 17, member_id: 6)</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -14280,7 +15839,9 @@
       <c r="K73" s="51">
         <v>1</v>
       </c>
-      <c r="L73" s="52"/>
+      <c r="L73" s="52" t="s">
+        <v>668</v>
+      </c>
       <c r="M73" s="43" t="s">
         <v>555</v>
       </c>
@@ -14319,7 +15880,7 @@
       </c>
       <c r="Z73" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Isle of Jura", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 65, abv: , pic1: "", event_id: 6, member_id: 1)</v>
+        <v>Whiskey.create(name: "Isle of Jura", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 65, abv: , pic1: "https://img.thewhiskyexchange.com/540/iojob.non.jpg", event_id: 6, member_id: 1)</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -14353,7 +15914,9 @@
       <c r="K74" s="51">
         <v>3</v>
       </c>
-      <c r="L74" s="52"/>
+      <c r="L74" s="52" t="s">
+        <v>669</v>
+      </c>
       <c r="M74" s="43" t="s">
         <v>555</v>
       </c>
@@ -14392,7 +15955,7 @@
       </c>
       <c r="Z74" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Jura Prophecy", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 73, abv: 0.46, pic1: "", event_id: 11, member_id: 3)</v>
+        <v>Whiskey.create(name: "Jura Prophecy", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 73, abv: 0.46, pic1: "http://ecx.images-amazon.com/images/I/81ceGbhDnXL._SY679_.jpg", event_id: 11, member_id: 3)</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -14496,7 +16059,9 @@
       <c r="K76" s="51">
         <v>13</v>
       </c>
-      <c r="L76" s="52"/>
+      <c r="L76" s="52" t="s">
+        <v>670</v>
+      </c>
       <c r="M76" s="43" t="s">
         <v>555</v>
       </c>
@@ -14535,7 +16100,7 @@
       </c>
       <c r="Z76" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Knappogue", region: "", country: "Ireland", type: "Irish", malt: "Single Malt", age: 11, price: 40, abv: 0.4, pic1: "", event_id: 1, member_id: 13)</v>
+        <v>Whiskey.create(name: "Knappogue", region: "", country: "Ireland", type: "Irish", malt: "Single Malt", age: 11, price: 40, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/900/irish_kna6.jpg", event_id: 1, member_id: 13)</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -14650,7 +16215,9 @@
       <c r="K78" s="51">
         <v>2</v>
       </c>
-      <c r="L78" s="52"/>
+      <c r="L78" s="52" t="s">
+        <v>672</v>
+      </c>
       <c r="M78" s="43" t="s">
         <v>555</v>
       </c>
@@ -14689,7 +16256,7 @@
       </c>
       <c r="Z78" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Lagavulin Cask Strength 2011 Bottling", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 110, abv: 0.575, pic1: "", event_id: 14, member_id: 2)</v>
+        <v>Whiskey.create(name: "Lagavulin Cask Strength 2011 Bottling", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 110, abv: 0.575, pic1: "https://img.thewhiskyexchange.com/540/lgvob.1995.jpg", event_id: 14, member_id: 2)</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -14726,7 +16293,9 @@
       <c r="K79" s="51">
         <v>2</v>
       </c>
-      <c r="L79" s="52"/>
+      <c r="L79" s="52" t="s">
+        <v>671</v>
+      </c>
       <c r="M79" s="43" t="s">
         <v>555</v>
       </c>
@@ -14765,7 +16334,7 @@
       </c>
       <c r="Z79" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Lagavulin Distillers Edition", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 95, abv: 0.43, pic1: "", event_id: 8, member_id: 2)</v>
+        <v>Whiskey.create(name: "Lagavulin Distillers Edition", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 17, price: 95, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/900/lgvob.1996.jpg", event_id: 8, member_id: 2)</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -14802,7 +16371,9 @@
       <c r="K80" s="51">
         <v>6</v>
       </c>
-      <c r="L80" s="52"/>
+      <c r="L80" s="52" t="s">
+        <v>638</v>
+      </c>
       <c r="M80" s="43" t="s">
         <v>555</v>
       </c>
@@ -14841,7 +16412,7 @@
       </c>
       <c r="Z80" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Laphroaig 10", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 35, abv: 0.43, pic1: "", event_id: 1, member_id: 6)</v>
+        <v>Whiskey.create(name: "Laphroaig 10", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 35, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/900/lrgob.10yov1.jpg", event_id: 1, member_id: 6)</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -14956,7 +16527,9 @@
       <c r="K82" s="51">
         <v>6</v>
       </c>
-      <c r="L82" s="52"/>
+      <c r="L82" s="52" t="s">
+        <v>637</v>
+      </c>
       <c r="M82" s="43" t="s">
         <v>555</v>
       </c>
@@ -14995,7 +16568,7 @@
       </c>
       <c r="Z82" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Laphroaig 18", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 147, abv: 0.48, pic1: "", event_id: 12, member_id: 6)</v>
+        <v>Whiskey.create(name: "Laphroaig 18", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 147, abv: 0.48, pic1: "https://img.thewhiskyexchange.com/540/lrgob.non1.jpg", event_id: 12, member_id: 6)</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -15032,7 +16605,9 @@
       <c r="K83" s="51">
         <v>1</v>
       </c>
-      <c r="L83" s="52"/>
+      <c r="L83" s="52" t="s">
+        <v>636</v>
+      </c>
       <c r="M83" s="43" t="s">
         <v>555</v>
       </c>
@@ -15071,7 +16646,7 @@
       </c>
       <c r="Z83" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Laphroaig Cask Strength", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 80, abv: 0.553, pic1: "", event_id: 12, member_id: 1)</v>
+        <v>Whiskey.create(name: "Laphroaig Cask Strength", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 80, abv: 0.553, pic1: "https://img.thewhiskyexchange.com/540/lrgob.10yov12.jpg", event_id: 12, member_id: 1)</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -15106,7 +16681,9 @@
       <c r="K84" s="51">
         <v>4</v>
       </c>
-      <c r="L84" s="52"/>
+      <c r="L84" s="52" t="s">
+        <v>673</v>
+      </c>
       <c r="M84" s="43" t="s">
         <v>555</v>
       </c>
@@ -15145,7 +16722,7 @@
       </c>
       <c r="Z84" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Ledaig", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 50, abv: , pic1: "", event_id: 1, member_id: 4)</v>
+        <v>Whiskey.create(name: "Ledaig", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 50, abv: , pic1: "https://img.thewhiskyexchange.com/540/ldgob.10yo.jpg", event_id: 1, member_id: 4)</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -15180,7 +16757,9 @@
       <c r="K85" s="51">
         <v>6</v>
       </c>
-      <c r="L85" s="52"/>
+      <c r="L85" s="52" t="s">
+        <v>674</v>
+      </c>
       <c r="M85" s="43" t="s">
         <v>555</v>
       </c>
@@ -15219,7 +16798,7 @@
       </c>
       <c r="Z85" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Linkwood", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 66, abv: , pic1: "", event_id: 8, member_id: 6)</v>
+        <v>Whiskey.create(name: "Linkwood", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 15, price: 66, abv: , pic1: "https://img.thewhiskyexchange.com/900/lkwsig1998v3.jpg", event_id: 8, member_id: 6)</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -15403,7 +16982,9 @@
       <c r="K88" s="51">
         <v>4</v>
       </c>
-      <c r="L88" s="34"/>
+      <c r="L88" s="34" t="s">
+        <v>679</v>
+      </c>
       <c r="M88" s="43" t="s">
         <v>555</v>
       </c>
@@ -15442,7 +17023,7 @@
       </c>
       <c r="Z88" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Macallan 12", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 50, abv: 0.43, pic1: "", event_id: 2, member_id: 4)</v>
+        <v>Whiskey.create(name: "Macallan 12", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 50, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/macob.12yov7.jpg", event_id: 2, member_id: 4)</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -15551,7 +17132,9 @@
       <c r="K90" s="51">
         <v>6</v>
       </c>
-      <c r="L90" s="52"/>
+      <c r="L90" s="52" t="s">
+        <v>680</v>
+      </c>
       <c r="M90" s="43" t="s">
         <v>555</v>
       </c>
@@ -15590,7 +17173,7 @@
       </c>
       <c r="Z90" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Mannochmore Signatory", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 13, price: 85, abv: , pic1: "", event_id: 3, member_id: 6)</v>
+        <v>Whiskey.create(name: "Mannochmore Signatory", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 13, price: 85, abv: , pic1: "https://img.thewhiskyexchange.com/540/mnmsig1991.jpg", event_id: 3, member_id: 6)</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -15625,7 +17208,9 @@
       <c r="K91" s="51">
         <v>4</v>
       </c>
-      <c r="L91" s="34"/>
+      <c r="L91" s="34" t="s">
+        <v>683</v>
+      </c>
       <c r="M91" s="43" t="s">
         <v>555</v>
       </c>
@@ -15664,7 +17249,7 @@
       </c>
       <c r="Z91" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "McCallan 18", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 130, abv: , pic1: "", event_id: 6, member_id: 4)</v>
+        <v>Whiskey.create(name: "McCallan 18", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 130, abv: , pic1: "https://img.thewhiskyexchange.com/540/macob.18yo.jpg", event_id: 6, member_id: 4)</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -15696,7 +17281,9 @@
       <c r="K92" s="51">
         <v>19</v>
       </c>
-      <c r="L92" s="34"/>
+      <c r="L92" s="34" t="s">
+        <v>684</v>
+      </c>
       <c r="M92" s="43" t="s">
         <v>555</v>
       </c>
@@ -15735,7 +17322,7 @@
       </c>
       <c r="Z92" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "McCallan Cask Strength", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 60, abv: , pic1: "", event_id: 6, member_id: 19)</v>
+        <v>Whiskey.create(name: "McCallan Cask Strength", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 60, abv: , pic1: "https://img.thewhiskyexchange.com/900/macob.10yov7.jpg", event_id: 6, member_id: 19)</v>
       </c>
     </row>
     <row r="93" spans="1:26">
@@ -15848,7 +17435,9 @@
       <c r="K94" s="51">
         <v>1</v>
       </c>
-      <c r="L94" s="34"/>
+      <c r="L94" s="34" t="s">
+        <v>675</v>
+      </c>
       <c r="M94" s="43" t="s">
         <v>555</v>
       </c>
@@ -15887,7 +17476,7 @@
       </c>
       <c r="Z94" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Oban 14", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.43, pic1: "", event_id: 3, member_id: 1)</v>
+        <v>Whiskey.create(name: "Oban 14", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/540/obnob.14yo.jpg", event_id: 3, member_id: 1)</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -15924,7 +17513,9 @@
       <c r="K95" s="51">
         <v>8</v>
       </c>
-      <c r="L95" s="34"/>
+      <c r="L95" s="34" t="s">
+        <v>677</v>
+      </c>
       <c r="M95" s="43" t="s">
         <v>555</v>
       </c>
@@ -15963,7 +17554,7 @@
       </c>
       <c r="Z95" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Oban 18", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 120, abv: 0.43, pic1: "", event_id: 17, member_id: 8)</v>
+        <v>Whiskey.create(name: "Oban 18", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 120, abv: 0.43, pic1: "https://img.thewhiskyexchange.com/900/obnob.1999.jpg", event_id: 17, member_id: 8)</v>
       </c>
     </row>
     <row r="96" spans="1:26">
@@ -15998,7 +17589,9 @@
       <c r="K96" s="51">
         <v>5</v>
       </c>
-      <c r="L96" s="34"/>
+      <c r="L96" s="34" t="s">
+        <v>676</v>
+      </c>
       <c r="M96" s="43" t="s">
         <v>555</v>
       </c>
@@ -16037,7 +17630,7 @@
       </c>
       <c r="Z96" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Oban 32", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 32, price: 300, abv: , pic1: "", event_id: 5, member_id: 5)</v>
+        <v>Whiskey.create(name: "Oban 32", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 32, price: 300, abv: , pic1: "https://img.thewhiskyexchange.com/540/obnob.1969.jpg", event_id: 5, member_id: 5)</v>
       </c>
     </row>
     <row r="97" spans="1:26">
@@ -16071,7 +17664,9 @@
       <c r="K97" s="51">
         <v>3</v>
       </c>
-      <c r="L97" s="52"/>
+      <c r="L97" s="52" t="s">
+        <v>678</v>
+      </c>
       <c r="M97" s="43" t="s">
         <v>555</v>
       </c>
@@ -16110,7 +17705,7 @@
       </c>
       <c r="Z97" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Redbreast 12", region: "", country: "Ireland", type: "Irish", malt: "Single Malt", age: 12, price: 40, abv: 0.4, pic1: "", event_id: 4, member_id: 3)</v>
+        <v>Whiskey.create(name: "Redbreast 12", region: "", country: "Ireland", type: "Irish", malt: "Single Malt", age: 12, price: 40, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/irish_red7.jpg", event_id: 4, member_id: 3)</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -16221,7 +17816,9 @@
       <c r="K99" s="51">
         <v>14</v>
       </c>
-      <c r="L99" s="52"/>
+      <c r="L99" s="52" t="s">
+        <v>657</v>
+      </c>
       <c r="M99" s="43" t="s">
         <v>555</v>
       </c>
@@ -16260,7 +17857,7 @@
       </c>
       <c r="Z99" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Russell's Reserve", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 6, price: 36, abv: 0.45, pic1: "", event_id: 10, member_id: 14)</v>
+        <v>Whiskey.create(name: "Russell's Reserve", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 6, price: 36, abv: 0.45, pic1: "https://img.thewhiskyexchange.com/900/brbon_wil39.jpg", event_id: 10, member_id: 14)</v>
       </c>
     </row>
     <row r="100" spans="1:26">
@@ -16295,7 +17892,9 @@
       <c r="K100" s="51">
         <v>5</v>
       </c>
-      <c r="L100" s="34"/>
+      <c r="L100" s="34" t="s">
+        <v>640</v>
+      </c>
       <c r="M100" s="43" t="s">
         <v>555</v>
       </c>
@@ -16334,7 +17933,7 @@
       </c>
       <c r="Z100" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Scapa 10", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 50, abv: , pic1: "", event_id: 1, member_id: 5)</v>
+        <v>Whiskey.create(name: "Scapa 10", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 50, abv: , pic1: "https://img.thewhiskyexchange.com/540/scpob.12yov1.jpg", event_id: 1, member_id: 5)</v>
       </c>
     </row>
     <row r="101" spans="1:26">
@@ -16369,7 +17968,9 @@
       <c r="K101" s="51">
         <v>2</v>
       </c>
-      <c r="L101" s="34"/>
+      <c r="L101" s="34" t="s">
+        <v>639</v>
+      </c>
       <c r="M101" s="43" t="s">
         <v>555</v>
       </c>
@@ -16408,7 +18009,7 @@
       </c>
       <c r="Z101" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Scapa 16", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 65, abv: , pic1: "", event_id: 7, member_id: 2)</v>
+        <v>Whiskey.create(name: "Scapa 16", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 65, abv: , pic1: "https://img.thewhiskyexchange.com/540/scpob.16yo.jpg", event_id: 7, member_id: 2)</v>
       </c>
     </row>
     <row r="102" spans="1:26">
@@ -16445,7 +18046,9 @@
       <c r="K102" s="51">
         <v>1</v>
       </c>
-      <c r="L102" s="52"/>
+      <c r="L102" s="52" t="s">
+        <v>641</v>
+      </c>
       <c r="M102" s="43" t="s">
         <v>555</v>
       </c>
@@ -16484,7 +18087,7 @@
       </c>
       <c r="Z102" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Springbank", region: "Campbeltown", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 70, abv: 0.46, pic1: "", event_id: 15, member_id: 1)</v>
+        <v>Whiskey.create(name: "Springbank", region: "Campbeltown", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 10, price: 70, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/900/sprob.12yov25.jpg", event_id: 15, member_id: 1)</v>
       </c>
     </row>
     <row r="103" spans="1:26">
@@ -16519,7 +18122,9 @@
       <c r="K103" s="51">
         <v>9</v>
       </c>
-      <c r="L103" s="52"/>
+      <c r="L103" s="52" t="s">
+        <v>656</v>
+      </c>
       <c r="M103" s="43" t="s">
         <v>555</v>
       </c>
@@ -16558,7 +18163,7 @@
       </c>
       <c r="Z103" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Strathisla Chivas Brothers", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 65, abv: , pic1: "", event_id: 6, member_id: 9)</v>
+        <v>Whiskey.create(name: "Strathisla Chivas Brothers", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 12, price: 65, abv: , pic1: "https://img.thewhiskyexchange.com/540/stlob.12yov1.jpg", event_id: 6, member_id: 9)</v>
       </c>
     </row>
     <row r="104" spans="1:26">
@@ -16592,7 +18197,9 @@
       <c r="K104" s="51">
         <v>1</v>
       </c>
-      <c r="L104" s="52"/>
+      <c r="L104" s="52" t="s">
+        <v>655</v>
+      </c>
       <c r="M104" s="43" t="s">
         <v>555</v>
       </c>
@@ -16631,7 +18238,7 @@
       </c>
       <c r="Z104" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Suntory Yamazuki", region: "", country: "Japan", type: "Japanese", malt: "Single Malt", age: 12, price: 40, abv: 0.435, pic1: "", event_id: 3, member_id: 1)</v>
+        <v>Whiskey.create(name: "Suntory Yamazuki", region: "", country: "Japan", type: "Japanese", malt: "Single Malt", age: 12, price: 40, abv: 0.435, pic1: "https://img.thewhiskyexchange.com/540/japan_yam1.jpg", event_id: 3, member_id: 1)</v>
       </c>
     </row>
     <row r="105" spans="1:26">
@@ -16666,7 +18273,9 @@
       <c r="K105" s="51">
         <v>9</v>
       </c>
-      <c r="L105" s="52"/>
+      <c r="L105" s="52" t="s">
+        <v>643</v>
+      </c>
       <c r="M105" s="43" t="s">
         <v>555</v>
       </c>
@@ -16705,7 +18314,7 @@
       </c>
       <c r="Z105" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Talisker", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 75, abv: , pic1: "", event_id: 2, member_id: 9)</v>
+        <v>Whiskey.create(name: "Talisker", region: "Islay", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 18, price: 75, abv: , pic1: "https://img.thewhiskyexchange.com/540/talob.18yov1.jpg", event_id: 2, member_id: 9)</v>
       </c>
     </row>
     <row r="106" spans="1:26">
@@ -16742,7 +18351,9 @@
       <c r="K106" s="58">
         <v>17</v>
       </c>
-      <c r="L106" s="34"/>
+      <c r="L106" s="34" t="s">
+        <v>642</v>
+      </c>
       <c r="M106" s="43" t="s">
         <v>555</v>
       </c>
@@ -16781,7 +18392,7 @@
       </c>
       <c r="Z106" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Talisker Distillers Edition", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 11, price: 85, abv: 0.458, pic1: "", event_id: 18, member_id: 17)</v>
+        <v>Whiskey.create(name: "Talisker Distillers Edition", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 11, price: 85, abv: 0.458, pic1: "https://s-media-cache-ak0.pinimg.com/736x/75/f3/85/75f3855ae936a705f40714a9fd485210.jpg", event_id: 18, member_id: 17)</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -16816,7 +18427,9 @@
       <c r="K107" s="51">
         <v>1</v>
       </c>
-      <c r="L107" s="34"/>
+      <c r="L107" s="34" t="s">
+        <v>644</v>
+      </c>
       <c r="M107" s="43" t="s">
         <v>555</v>
       </c>
@@ -16855,7 +18468,7 @@
       </c>
       <c r="Z107" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Talisker Storm", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 75, abv: 0.458, pic1: "", event_id: 18, member_id: 1)</v>
+        <v>Whiskey.create(name: "Talisker Storm", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: , price: 75, abv: 0.458, pic1: "https://img.thewhiskyexchange.com/540/talob.non7.jpg", event_id: 18, member_id: 1)</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -16889,7 +18502,9 @@
       <c r="K108" s="51">
         <v>9</v>
       </c>
-      <c r="L108" s="52"/>
+      <c r="L108" s="52" t="s">
+        <v>645</v>
+      </c>
       <c r="M108" s="43" t="s">
         <v>555</v>
       </c>
@@ -16928,7 +18543,7 @@
       </c>
       <c r="Z108" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Templeton Rye", region: "Iowa", country: "USA", type: "Rye", malt: "Blend", age: , price: 47, abv: 0.4, pic1: "", event_id: 13, member_id: 9)</v>
+        <v>Whiskey.create(name: "Templeton Rye", region: "Iowa", country: "USA", type: "Rye", malt: "Blend", age: , price: 47, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/brbon_tem1.jpg", event_id: 13, member_id: 9)</v>
       </c>
     </row>
     <row r="109" spans="1:26">
@@ -16962,7 +18577,9 @@
       <c r="K109" s="51">
         <v>2</v>
       </c>
-      <c r="L109" s="34"/>
+      <c r="L109" s="34" t="s">
+        <v>654</v>
+      </c>
       <c r="M109" s="43" t="s">
         <v>555</v>
       </c>
@@ -17001,7 +18618,7 @@
       </c>
       <c r="Z109" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "The Peat Monster Compass Box Non-Chill Filtered", region: "Islay/Speyside", country: "Scotland", type: "Scotch", malt: "Blend", age: , price: 60, abv: 0.46, pic1: "", event_id: 12, member_id: 2)</v>
+        <v>Whiskey.create(name: "The Peat Monster Compass Box Non-Chill Filtered", region: "Islay/Speyside", country: "Scotland", type: "Scotch", malt: "Blend", age: , price: 60, abv: 0.46, pic1: "https://img.thewhiskyexchange.com/540/vatted_com25.jpg", event_id: 12, member_id: 2)</v>
       </c>
     </row>
     <row r="110" spans="1:26">
@@ -17038,7 +18655,9 @@
       <c r="K110" s="51">
         <v>4</v>
       </c>
-      <c r="L110" s="52"/>
+      <c r="L110" s="52" t="s">
+        <v>653</v>
+      </c>
       <c r="M110" s="43" t="s">
         <v>555</v>
       </c>
@@ -17077,7 +18696,7 @@
       </c>
       <c r="Z110" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Tomintoul", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 45, abv: 0.4, pic1: "", event_id: 5, member_id: 4)</v>
+        <v>Whiskey.create(name: "Tomintoul", region: "Speyside", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 16, price: 45, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/900/tmtob.14yo.jpg", event_id: 5, member_id: 4)</v>
       </c>
     </row>
     <row r="111" spans="1:26">
@@ -17108,7 +18727,9 @@
       <c r="K111" s="51">
         <v>9</v>
       </c>
-      <c r="L111" s="52"/>
+      <c r="L111" s="52" t="s">
+        <v>652</v>
+      </c>
       <c r="M111" s="43" t="s">
         <v>555</v>
       </c>
@@ -17147,7 +18768,7 @@
       </c>
       <c r="Z111" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Tullamore Dew", region: "", country: "Ireland", type: "Irish", malt: "Blend", age: , price: 25, abv: 0.4, pic1: "", event_id: 4, member_id: 9)</v>
+        <v>Whiskey.create(name: "Tullamore Dew", region: "", country: "Ireland", type: "Irish", malt: "Blend", age: , price: 25, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/irish_tul1.jpg", event_id: 4, member_id: 9)</v>
       </c>
     </row>
     <row r="112" spans="1:26">
@@ -17184,7 +18805,9 @@
       <c r="K112" s="51">
         <v>9</v>
       </c>
-      <c r="L112" s="34"/>
+      <c r="L112" s="34" t="s">
+        <v>651</v>
+      </c>
       <c r="M112" s="43" t="s">
         <v>555</v>
       </c>
@@ -17223,7 +18846,7 @@
       </c>
       <c r="Z112" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Tullibardine", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.4, pic1: "", event_id: 9, member_id: 9)</v>
+        <v>Whiskey.create(name: "Tullibardine", region: "Highland", country: "Scotland", type: "Scotch", malt: "Single Malt", age: 14, price: 60, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/270/tulob.05yov3.jpg", event_id: 9, member_id: 9)</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -17254,7 +18877,9 @@
       <c r="K113" s="51">
         <v>9</v>
       </c>
-      <c r="L113" s="52"/>
+      <c r="L113" s="52" t="s">
+        <v>650</v>
+      </c>
       <c r="M113" s="43" t="s">
         <v>555</v>
       </c>
@@ -17293,7 +18918,7 @@
       </c>
       <c r="Z113" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Tyrconnel", region: "", country: "Ireland", type: "Irish", malt: "Single Malt", age: , price: 30, abv: 0.4, pic1: "", event_id: 7, member_id: 9)</v>
+        <v>Whiskey.create(name: "Tyrconnel", region: "", country: "Ireland", type: "Irish", malt: "Single Malt", age: , price: 30, abv: 0.4, pic1: "https://img.thewhiskyexchange.com/540/irish_tyr1.jpg", event_id: 7, member_id: 9)</v>
       </c>
     </row>
     <row r="114" spans="1:26">
@@ -17406,7 +19031,9 @@
       <c r="K115" s="51">
         <v>2</v>
       </c>
-      <c r="L115" s="34"/>
+      <c r="L115" s="34" t="s">
+        <v>649</v>
+      </c>
       <c r="M115" s="43" t="s">
         <v>555</v>
       </c>
@@ -17445,7 +19072,7 @@
       </c>
       <c r="Z115" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Watkins Select", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 3, price: 35, abv: 0.4, pic1: "", event_id: 18, member_id: 2)</v>
+        <v>Whiskey.create(name: "Watkins Select", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: 3, price: 35, abv: 0.4, pic1: "https://s-media-cache-ak0.pinimg.com/236x/0e/8f/ba/0e8fbaaad13ac172f2db7ffa707896bb.jpg", event_id: 18, member_id: 2)</v>
       </c>
     </row>
     <row r="116" spans="1:26">
@@ -17479,7 +19106,9 @@
       <c r="K116" s="51">
         <v>1</v>
       </c>
-      <c r="L116" s="34"/>
+      <c r="L116" s="34" t="s">
+        <v>648</v>
+      </c>
       <c r="M116" s="43" t="s">
         <v>555</v>
       </c>
@@ -17518,7 +19147,7 @@
       </c>
       <c r="Z116" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Wild Turkey Rare Breed Barrel Proof", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: , price: 34, abv: 0.541, pic1: "", event_id: 13, member_id: 1)</v>
+        <v>Whiskey.create(name: "Wild Turkey Rare Breed Barrel Proof", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: , price: 34, abv: 0.541, pic1: "https://img.thewhiskyexchange.com/540/brbon_wil5.jpg", event_id: 13, member_id: 1)</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -17552,7 +19181,9 @@
       <c r="K117" s="51">
         <v>1</v>
       </c>
-      <c r="L117" s="34"/>
+      <c r="L117" s="34" t="s">
+        <v>647</v>
+      </c>
       <c r="M117" s="43" t="s">
         <v>555</v>
       </c>
@@ -17591,7 +19222,7 @@
       </c>
       <c r="Z117" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Willett", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: , price: 70, abv: 0.47, pic1: "", event_id: 10, member_id: 1)</v>
+        <v>Whiskey.create(name: "Willett", region: "Kentucky", country: "USA", type: "Bourbon", malt: "Blend", age: , price: 70, abv: 0.47, pic1: "https://img.thewhiskyexchange.com/900/brbon_wil28.jpg", event_id: 10, member_id: 1)</v>
       </c>
     </row>
     <row r="118" spans="1:26">
@@ -17628,7 +19259,9 @@
       <c r="K118" s="51">
         <v>1</v>
       </c>
-      <c r="L118" s="34"/>
+      <c r="L118" s="34" t="s">
+        <v>646</v>
+      </c>
       <c r="M118" s="43" t="s">
         <v>555</v>
       </c>
@@ -17667,7 +19300,7 @@
       </c>
       <c r="Z118" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>Whiskey.create(name: "Willett Distillery Family Estate", region: "Kentucky", country: "USA", type: "Rye", malt: "Blend", age: 9, price: 56, abv: 0.62, pic1: "", event_id: 13, member_id: 1)</v>
+        <v>Whiskey.create(name: "Willett Distillery Family Estate", region: "Kentucky", country: "USA", type: "Rye", malt: "Blend", age: 9, price: 56, abv: 0.62, pic1: "https://img.thewhiskyexchange.com/540/brbon_wil26.jpg", event_id: 13, member_id: 1)</v>
       </c>
     </row>
   </sheetData>
@@ -17678,6 +19311,532 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="45">
+      <c r="B2" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="25">
+      <c r="B4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="E4" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="K4" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="N4" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="K7" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" t="s">
+        <v>416</v>
+      </c>
+      <c r="K9" t="s">
+        <v>280</v>
+      </c>
+      <c r="N9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" t="s">
+        <v>567</v>
+      </c>
+      <c r="K10" t="s">
+        <v>316</v>
+      </c>
+      <c r="N10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+      <c r="K11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+      <c r="H19" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" t="s">
+        <v>292</v>
+      </c>
+      <c r="K19" t="s">
+        <v>375</v>
+      </c>
+      <c r="L19" t="s">
+        <v>377</v>
+      </c>
+      <c r="N19" t="s">
+        <v>376</v>
+      </c>
+      <c r="O19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="H20" t="s">
+        <v>382</v>
+      </c>
+      <c r="I20" t="s">
+        <v>292</v>
+      </c>
+      <c r="N20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="N21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" t="s">
+        <v>378</v>
+      </c>
+      <c r="I23" t="s">
+        <v>380</v>
+      </c>
+      <c r="K23" t="s">
+        <v>291</v>
+      </c>
+      <c r="L23" t="s">
+        <v>289</v>
+      </c>
+      <c r="N23" t="s">
+        <v>294</v>
+      </c>
+      <c r="O23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="K24" t="s">
+        <v>317</v>
+      </c>
+      <c r="L24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" t="s">
+        <v>318</v>
+      </c>
+      <c r="L25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" t="s">
+        <v>570</v>
+      </c>
+      <c r="L26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="K27" t="s">
+        <v>320</v>
+      </c>
+      <c r="L27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="24"/>
+      <c r="K28" t="s">
+        <v>298</v>
+      </c>
+      <c r="L28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="K29" t="s">
+        <v>299</v>
+      </c>
+      <c r="L29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="24"/>
+      <c r="K30" t="s">
+        <v>321</v>
+      </c>
+      <c r="L30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="24"/>
+      <c r="K31" t="s">
+        <v>322</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="24"/>
+      <c r="K32" t="s">
+        <v>382</v>
+      </c>
+      <c r="L32" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="24"/>
+      <c r="K33" t="s">
+        <v>381</v>
+      </c>
+      <c r="L33" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="2:14" ht="120">
+      <c r="B35" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="N35" s="42" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="24"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="24"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M60:N70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="60" spans="13:13">
+      <c r="M60" s="22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="62" spans="13:13">
+      <c r="M62" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="63" spans="13:13">
+      <c r="M63" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="13:13">
+      <c r="M64" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14">
+      <c r="N67" s="62"/>
+    </row>
+    <row r="68" spans="14:14">
+      <c r="N68" s="62"/>
+    </row>
+    <row r="69" spans="14:14">
+      <c r="N69" s="62"/>
+    </row>
+    <row r="70" spans="14:14">
+      <c r="N70" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18012,7 +20171,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
+++ b/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936" activeTab="3"/>
+    <workbookView xWindow="320" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936"/>
   </bookViews>
   <sheets>
     <sheet name="neat-todo" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="685">
   <si>
     <t>Date</t>
   </si>
@@ -1763,9 +1763,6 @@
     <t>SHOW WHISKEY PAGE</t>
   </si>
   <si>
-    <t>image on left, data on right</t>
-  </si>
-  <si>
     <t>link as many images as possible</t>
   </si>
   <si>
@@ -2078,16 +2075,19 @@
     <t>https://img.thewhiskyexchange.com/540/mnmsig1991.jpg</t>
   </si>
   <si>
-    <t>Macallan 18</t>
-  </si>
-  <si>
-    <t>Macallan Cask Strength</t>
-  </si>
-  <si>
     <t>https://img.thewhiskyexchange.com/540/macob.18yo.jpg</t>
   </si>
   <si>
     <t>https://img.thewhiskyexchange.com/900/macob.10yov7.jpg</t>
+  </si>
+  <si>
+    <t>css fixed height</t>
+  </si>
+  <si>
+    <t>html heights</t>
+  </si>
+  <si>
+    <t>image resizing</t>
   </si>
 </sst>
 </file>
@@ -4657,9 +4657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F142"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F142"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4678,29 +4676,29 @@
         <v>574</v>
       </c>
       <c r="E3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4711,974 +4709,519 @@
         <v>575</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>576</v>
-      </c>
-    </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>589</v>
+        <v>588</v>
+      </c>
+      <c r="E11" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
+      </c>
+      <c r="E12" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="22" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="22" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="E26" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="E27" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="E28" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
+    <row r="26" spans="2:5">
+      <c r="E26" s="48"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+        <v>577</v>
+      </c>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>582</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="E31" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="E32" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>597</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>594</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>584</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>598</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>585</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" t="s">
-        <v>599</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="E36" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" t="s">
-        <v>600</v>
-      </c>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="E37" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>311</v>
-      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>342</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>602</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="E40" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>404</v>
-      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="E41" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>601</v>
-      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="E42" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>603</v>
-      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="E43" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>406</v>
-      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="E44" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>407</v>
-      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="E45" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="54" t="s">
-        <v>604</v>
-      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="54"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="E46" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>605</v>
-      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="E47" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>606</v>
-      </c>
+      <c r="E47" s="29"/>
+      <c r="F47" s="52"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="E48" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>607</v>
-      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="5:6">
-      <c r="E49" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>408</v>
-      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="34"/>
     </row>
     <row r="50" spans="5:6">
-      <c r="E50" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>411</v>
-      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="5:6">
-      <c r="E51" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>412</v>
-      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="5:6">
-      <c r="E52" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>412</v>
-      </c>
+      <c r="E52" s="29"/>
+      <c r="F52" s="52"/>
     </row>
     <row r="53" spans="5:6">
-      <c r="E53" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>612</v>
-      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" spans="5:6">
-      <c r="E54" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>613</v>
-      </c>
+      <c r="E54" s="29"/>
+      <c r="F54" s="52"/>
     </row>
     <row r="55" spans="5:6">
-      <c r="E55" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>614</v>
-      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="52"/>
     </row>
     <row r="56" spans="5:6">
-      <c r="E56" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>615</v>
-      </c>
+      <c r="E56" s="29"/>
+      <c r="F56" s="52"/>
     </row>
     <row r="57" spans="5:6">
-      <c r="E57" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>616</v>
-      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="52"/>
     </row>
     <row r="58" spans="5:6">
-      <c r="E58" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>617</v>
-      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="52"/>
     </row>
     <row r="59" spans="5:6">
-      <c r="E59" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F59" s="52" t="s">
-        <v>619</v>
-      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="52"/>
     </row>
     <row r="60" spans="5:6">
-      <c r="E60" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="F60" s="52" t="s">
-        <v>619</v>
-      </c>
+      <c r="E60" s="29"/>
+      <c r="F60" s="52"/>
     </row>
     <row r="61" spans="5:6">
-      <c r="E61" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>618</v>
-      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="5:6">
-      <c r="E62" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>620</v>
-      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" spans="5:6">
-      <c r="E63" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>621</v>
-      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="5:6">
-      <c r="E64" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>610</v>
-      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="52"/>
     </row>
     <row r="65" spans="5:6">
-      <c r="E65" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>611</v>
-      </c>
+      <c r="E65" s="29"/>
+      <c r="F65" s="52"/>
     </row>
     <row r="66" spans="5:6">
-      <c r="E66" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>625</v>
-      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="5:6">
-      <c r="E67" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>626</v>
-      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="34"/>
     </row>
     <row r="68" spans="5:6">
-      <c r="E68" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>627</v>
-      </c>
+      <c r="E68" s="29"/>
+      <c r="F68" s="52"/>
     </row>
     <row r="69" spans="5:6">
-      <c r="E69" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>628</v>
-      </c>
+      <c r="E69" s="29"/>
+      <c r="F69" s="52"/>
     </row>
     <row r="70" spans="5:6">
-      <c r="E70" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>629</v>
-      </c>
+      <c r="E70" s="29"/>
+      <c r="F70" s="52"/>
     </row>
     <row r="71" spans="5:6">
-      <c r="E71" s="29" t="s">
-        <v>114</v>
-      </c>
+      <c r="E71" s="29"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="5:6">
-      <c r="E72" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>630</v>
-      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="34"/>
     </row>
     <row r="73" spans="5:6">
-      <c r="E73" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>631</v>
-      </c>
+      <c r="E73" s="29"/>
+      <c r="F73" s="52"/>
     </row>
     <row r="74" spans="5:6">
-      <c r="E74" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>632</v>
-      </c>
+      <c r="E74" s="29"/>
+      <c r="F74" s="34"/>
     </row>
     <row r="75" spans="5:6">
-      <c r="E75" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>633</v>
-      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="34"/>
     </row>
     <row r="76" spans="5:6">
-      <c r="E76" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>634</v>
-      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="52"/>
     </row>
     <row r="77" spans="5:6">
-      <c r="E77" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>635</v>
-      </c>
+      <c r="E77" s="29"/>
+      <c r="F77" s="52"/>
     </row>
     <row r="78" spans="5:6">
-      <c r="E78" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>420</v>
-      </c>
+      <c r="E78" s="29"/>
+      <c r="F78" s="34"/>
     </row>
     <row r="79" spans="5:6">
-      <c r="E79" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="F79" s="52" t="s">
-        <v>421</v>
-      </c>
+      <c r="E79" s="29"/>
+      <c r="F79" s="52"/>
     </row>
     <row r="80" spans="5:6">
-      <c r="E80" s="29" t="s">
-        <v>135</v>
-      </c>
+      <c r="E80" s="29"/>
       <c r="F80" s="52"/>
     </row>
     <row r="81" spans="5:6">
-      <c r="E81" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>660</v>
-      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="34"/>
     </row>
     <row r="82" spans="5:6">
-      <c r="E82" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>661</v>
-      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="34"/>
     </row>
     <row r="83" spans="5:6">
-      <c r="E83" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>422</v>
-      </c>
+      <c r="E83" s="29"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="5:6">
-      <c r="E84" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>662</v>
-      </c>
+      <c r="E84" s="29"/>
+      <c r="F84" s="34"/>
     </row>
     <row r="85" spans="5:6">
-      <c r="E85" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>423</v>
-      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="34"/>
     </row>
     <row r="86" spans="5:6">
-      <c r="E86" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>663</v>
-      </c>
+      <c r="E86" s="29"/>
+      <c r="F86" s="34"/>
     </row>
     <row r="87" spans="5:6">
-      <c r="E87" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>424</v>
-      </c>
+      <c r="E87" s="29"/>
+      <c r="F87" s="34"/>
     </row>
     <row r="88" spans="5:6">
-      <c r="E88" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>425</v>
-      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="34"/>
     </row>
     <row r="89" spans="5:6">
-      <c r="E89" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F89" s="52" t="s">
-        <v>427</v>
-      </c>
+      <c r="E89" s="29"/>
+      <c r="F89" s="52"/>
     </row>
     <row r="90" spans="5:6">
-      <c r="E90" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" s="52" t="s">
-        <v>426</v>
-      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="52"/>
     </row>
     <row r="91" spans="5:6">
-      <c r="E91" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>609</v>
-      </c>
+      <c r="E91" s="29"/>
+      <c r="F91" s="34"/>
     </row>
     <row r="92" spans="5:6">
-      <c r="E92" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>608</v>
-      </c>
+      <c r="E92" s="29"/>
+      <c r="F92" s="34"/>
     </row>
     <row r="93" spans="5:6">
-      <c r="E93" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F93" s="52" t="s">
-        <v>664</v>
-      </c>
+      <c r="E93" s="29"/>
+      <c r="F93" s="52"/>
     </row>
     <row r="94" spans="5:6">
-      <c r="E94" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F94" s="52" t="s">
-        <v>665</v>
-      </c>
+      <c r="E94" s="29"/>
+      <c r="F94" s="52"/>
     </row>
     <row r="95" spans="5:6">
-      <c r="E95" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F95" s="52" t="s">
-        <v>667</v>
-      </c>
+      <c r="E95" s="29"/>
+      <c r="F95" s="52"/>
     </row>
     <row r="96" spans="5:6">
-      <c r="E96" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F96" s="52" t="s">
-        <v>666</v>
-      </c>
+      <c r="E96" s="29"/>
+      <c r="F96" s="52"/>
     </row>
     <row r="97" spans="5:6">
-      <c r="E97" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F97" s="52" t="s">
-        <v>668</v>
-      </c>
+      <c r="E97" s="29"/>
+      <c r="F97" s="52"/>
     </row>
     <row r="98" spans="5:6">
-      <c r="E98" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="F98" s="52" t="s">
-        <v>669</v>
-      </c>
+      <c r="E98" s="29"/>
+      <c r="F98" s="52"/>
     </row>
     <row r="99" spans="5:6">
-      <c r="E99" s="29" t="s">
-        <v>171</v>
-      </c>
+      <c r="E99" s="29"/>
       <c r="F99" s="52"/>
     </row>
     <row r="100" spans="5:6">
-      <c r="E100" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="F100" s="52" t="s">
-        <v>670</v>
-      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="52"/>
     </row>
     <row r="101" spans="5:6">
-      <c r="E101" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="F101" s="52" t="s">
-        <v>554</v>
-      </c>
+      <c r="E101" s="29"/>
+      <c r="F101" s="52"/>
     </row>
     <row r="102" spans="5:6">
-      <c r="E102" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="F102" s="52" t="s">
-        <v>672</v>
-      </c>
+      <c r="E102" s="29"/>
+      <c r="F102" s="52"/>
     </row>
     <row r="103" spans="5:6">
-      <c r="E103" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F103" s="52" t="s">
-        <v>671</v>
-      </c>
+      <c r="E103" s="29"/>
+      <c r="F103" s="52"/>
     </row>
     <row r="104" spans="5:6">
-      <c r="E104" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="F104" s="52" t="s">
-        <v>638</v>
-      </c>
+      <c r="E104" s="29"/>
+      <c r="F104" s="52"/>
     </row>
     <row r="105" spans="5:6">
-      <c r="E105" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="F105" s="52" t="s">
-        <v>414</v>
-      </c>
+      <c r="E105" s="29"/>
+      <c r="F105" s="52"/>
     </row>
     <row r="106" spans="5:6">
-      <c r="E106" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="F106" s="52" t="s">
-        <v>637</v>
-      </c>
+      <c r="E106" s="29"/>
+      <c r="F106" s="52"/>
     </row>
     <row r="107" spans="5:6">
-      <c r="E107" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F107" s="52" t="s">
-        <v>636</v>
-      </c>
+      <c r="E107" s="29"/>
+      <c r="F107" s="52"/>
     </row>
     <row r="108" spans="5:6">
-      <c r="E108" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F108" s="52" t="s">
-        <v>673</v>
-      </c>
+      <c r="E108" s="29"/>
+      <c r="F108" s="52"/>
     </row>
     <row r="109" spans="5:6">
-      <c r="E109" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="F109" s="52" t="s">
-        <v>674</v>
-      </c>
+      <c r="E109" s="29"/>
+      <c r="F109" s="52"/>
     </row>
     <row r="110" spans="5:6">
-      <c r="E110" s="29" t="s">
-        <v>193</v>
-      </c>
+      <c r="E110" s="29"/>
       <c r="F110" s="52"/>
     </row>
     <row r="111" spans="5:6">
-      <c r="E111" s="29" t="s">
-        <v>195</v>
-      </c>
+      <c r="E111" s="29"/>
       <c r="F111" s="34"/>
     </row>
     <row r="112" spans="5:6">
-      <c r="E112" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>679</v>
-      </c>
+      <c r="E112" s="29"/>
+      <c r="F112" s="34"/>
     </row>
     <row r="113" spans="5:6">
-      <c r="E113" s="29" t="s">
-        <v>199</v>
-      </c>
+      <c r="E113" s="29"/>
       <c r="F113" s="34"/>
     </row>
     <row r="114" spans="5:6">
-      <c r="E114" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F114" s="52" t="s">
-        <v>680</v>
-      </c>
+      <c r="E114" s="29"/>
+      <c r="F114" s="52"/>
     </row>
     <row r="115" spans="5:6">
-      <c r="E115" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="F115" s="34" t="s">
-        <v>683</v>
-      </c>
+      <c r="E115" s="29"/>
+      <c r="F115" s="34"/>
     </row>
     <row r="116" spans="5:6">
-      <c r="E116" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="F116" s="34" t="s">
-        <v>684</v>
-      </c>
+      <c r="E116" s="29"/>
+      <c r="F116" s="34"/>
     </row>
     <row r="117" spans="5:6">
-      <c r="E117" s="29" t="s">
-        <v>205</v>
-      </c>
+      <c r="E117" s="29"/>
       <c r="F117" s="52"/>
     </row>
     <row r="118" spans="5:6">
-      <c r="E118" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="F118" s="34" t="s">
-        <v>675</v>
-      </c>
+      <c r="E118" s="29"/>
+      <c r="F118" s="34"/>
     </row>
     <row r="119" spans="5:6">
-      <c r="E119" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F119" s="34" t="s">
-        <v>677</v>
-      </c>
+      <c r="E119" s="29"/>
+      <c r="F119" s="34"/>
     </row>
     <row r="120" spans="5:6">
-      <c r="E120" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="F120" s="34" t="s">
-        <v>676</v>
-      </c>
+      <c r="E120" s="29"/>
+      <c r="F120" s="34"/>
     </row>
     <row r="121" spans="5:6">
-      <c r="E121" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="F121" s="52" t="s">
-        <v>678</v>
-      </c>
+      <c r="E121" s="29"/>
+      <c r="F121" s="52"/>
     </row>
     <row r="122" spans="5:6">
-      <c r="E122" s="29" t="s">
-        <v>211</v>
-      </c>
+      <c r="E122" s="29"/>
       <c r="F122" s="52"/>
     </row>
     <row r="123" spans="5:6">
-      <c r="E123" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="F123" s="52" t="s">
-        <v>657</v>
-      </c>
+      <c r="E123" s="29"/>
+      <c r="F123" s="52"/>
     </row>
     <row r="124" spans="5:6">
-      <c r="E124" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="F124" s="34" t="s">
-        <v>640</v>
-      </c>
+      <c r="E124" s="29"/>
+      <c r="F124" s="34"/>
     </row>
     <row r="125" spans="5:6">
-      <c r="E125" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="F125" s="34" t="s">
-        <v>639</v>
-      </c>
+      <c r="E125" s="29"/>
+      <c r="F125" s="34"/>
     </row>
     <row r="126" spans="5:6">
-      <c r="E126" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F126" s="52" t="s">
-        <v>641</v>
-      </c>
+      <c r="E126" s="29"/>
+      <c r="F126" s="52"/>
     </row>
     <row r="127" spans="5:6">
-      <c r="E127" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="F127" s="52" t="s">
-        <v>656</v>
-      </c>
+      <c r="E127" s="29"/>
+      <c r="F127" s="52"/>
     </row>
     <row r="128" spans="5:6">
-      <c r="E128" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="F128" s="52" t="s">
-        <v>655</v>
-      </c>
+      <c r="E128" s="29"/>
+      <c r="F128" s="52"/>
     </row>
     <row r="129" spans="5:6">
-      <c r="E129" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="F129" s="52" t="s">
-        <v>643</v>
-      </c>
+      <c r="E129" s="29"/>
+      <c r="F129" s="52"/>
     </row>
     <row r="130" spans="5:6">
-      <c r="E130" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F130" s="34" t="s">
-        <v>642</v>
-      </c>
+      <c r="E130" s="32"/>
+      <c r="F130" s="34"/>
     </row>
     <row r="131" spans="5:6">
-      <c r="E131" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="F131" s="34" t="s">
-        <v>644</v>
-      </c>
+      <c r="E131" s="32"/>
+      <c r="F131" s="34"/>
     </row>
     <row r="132" spans="5:6">
-      <c r="E132" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F132" s="52" t="s">
-        <v>645</v>
-      </c>
+      <c r="E132" s="29"/>
+      <c r="F132" s="52"/>
     </row>
     <row r="133" spans="5:6">
-      <c r="E133" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="F133" s="34" t="s">
-        <v>654</v>
-      </c>
+      <c r="E133" s="29"/>
+      <c r="F133" s="34"/>
     </row>
     <row r="134" spans="5:6">
-      <c r="E134" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="F134" s="52" t="s">
-        <v>653</v>
-      </c>
+      <c r="E134" s="29"/>
+      <c r="F134" s="52"/>
     </row>
     <row r="135" spans="5:6">
-      <c r="E135" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F135" s="52" t="s">
-        <v>652</v>
-      </c>
+      <c r="E135" s="29"/>
+      <c r="F135" s="52"/>
     </row>
     <row r="136" spans="5:6">
-      <c r="E136" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F136" s="34" t="s">
-        <v>651</v>
-      </c>
+      <c r="E136" s="29"/>
+      <c r="F136" s="34"/>
     </row>
     <row r="137" spans="5:6">
-      <c r="E137" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="F137" s="52" t="s">
-        <v>650</v>
-      </c>
+      <c r="E137" s="29"/>
+      <c r="F137" s="52"/>
     </row>
     <row r="138" spans="5:6">
-      <c r="E138" s="29" t="s">
-        <v>244</v>
-      </c>
+      <c r="E138" s="29"/>
       <c r="F138" s="52"/>
     </row>
     <row r="139" spans="5:6">
-      <c r="E139" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F139" s="34" t="s">
-        <v>649</v>
-      </c>
+      <c r="E139" s="48"/>
+      <c r="F139" s="34"/>
     </row>
     <row r="140" spans="5:6">
-      <c r="E140" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F140" s="34" t="s">
-        <v>648</v>
-      </c>
+      <c r="E140" s="29"/>
+      <c r="F140" s="34"/>
     </row>
     <row r="141" spans="5:6">
-      <c r="E141" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="F141" s="34" t="s">
-        <v>647</v>
-      </c>
+      <c r="E141" s="29"/>
+      <c r="F141" s="34"/>
     </row>
     <row r="142" spans="5:6">
-      <c r="E142" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F142" s="34" t="s">
-        <v>646</v>
-      </c>
+      <c r="E142" s="29"/>
+      <c r="F142" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10349,7 +9892,7 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M2" s="43" t="s">
         <v>555</v>
@@ -10428,7 +9971,7 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M3" s="43" t="s">
         <v>555</v>
@@ -10506,7 +10049,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M4" s="43" t="s">
         <v>555</v>
@@ -10584,7 +10127,7 @@
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M5" s="43" t="s">
         <v>555</v>
@@ -10659,7 +10202,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M6" s="43" t="s">
         <v>555</v>
@@ -10737,7 +10280,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M7" s="43" t="s">
         <v>555</v>
@@ -10815,7 +10358,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M8" s="43" t="s">
         <v>555</v>
@@ -10893,7 +10436,7 @@
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M9" s="43" t="s">
         <v>555</v>
@@ -10971,7 +10514,7 @@
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>555</v>
@@ -11049,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M11" s="43" t="s">
         <v>555</v>
@@ -11127,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M12" s="43" t="s">
         <v>555</v>
@@ -11358,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M15" s="43" t="s">
         <v>555</v>
@@ -11514,7 +11057,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M17" s="43" t="s">
         <v>555</v>
@@ -11592,7 +11135,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="52" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M18" s="43" t="s">
         <v>555</v>
@@ -11826,7 +11369,7 @@
         <v>8</v>
       </c>
       <c r="L21" s="54" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M21" s="43" t="s">
         <v>555</v>
@@ -11904,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M22" s="43" t="s">
         <v>555</v>
@@ -11982,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M23" s="43" t="s">
         <v>555</v>
@@ -12060,7 +11603,7 @@
         <v>5</v>
       </c>
       <c r="L24" s="52" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M24" s="43" t="s">
         <v>555</v>
@@ -12450,7 +11993,7 @@
         <v>7</v>
       </c>
       <c r="L29" s="52" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M29" s="43" t="s">
         <v>555</v>
@@ -12528,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M30" s="43" t="s">
         <v>555</v>
@@ -12603,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M31" s="43" t="s">
         <v>555</v>
@@ -12681,7 +12224,7 @@
         <v>7</v>
       </c>
       <c r="L32" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M32" s="43" t="s">
         <v>555</v>
@@ -12759,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="52" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M33" s="43" t="s">
         <v>555</v>
@@ -12831,7 +12374,7 @@
         <v>7</v>
       </c>
       <c r="L34" s="52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M34" s="43" t="s">
         <v>555</v>
@@ -12909,7 +12452,7 @@
         <v>5</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M35" s="43" t="s">
         <v>555</v>
@@ -12987,7 +12530,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="52" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M36" s="43" t="s">
         <v>555</v>
@@ -13065,7 +12608,7 @@
         <v>2</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M37" s="43" t="s">
         <v>555</v>
@@ -13143,7 +12686,7 @@
         <v>7</v>
       </c>
       <c r="L38" s="52" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M38" s="43" t="s">
         <v>555</v>
@@ -13221,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M39" s="43" t="s">
         <v>555</v>
@@ -13299,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="52" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M40" s="43" t="s">
         <v>555</v>
@@ -13377,7 +12920,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M41" s="43" t="s">
         <v>555</v>
@@ -13449,7 +12992,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M42" s="43" t="s">
         <v>555</v>
@@ -13527,7 +13070,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M43" s="43" t="s">
         <v>555</v>
@@ -13605,7 +13148,7 @@
         <v>3</v>
       </c>
       <c r="L44" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M44" s="43" t="s">
         <v>555</v>
@@ -13680,7 +13223,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M45" s="43" t="s">
         <v>555</v>
@@ -13758,7 +13301,7 @@
         <v>5</v>
       </c>
       <c r="L46" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M46" s="43" t="s">
         <v>555</v>
@@ -13912,7 +13455,7 @@
         <v>3</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M48" s="43" t="s">
         <v>555</v>
@@ -13990,7 +13533,7 @@
         <v>18</v>
       </c>
       <c r="L49" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M49" s="43" t="s">
         <v>555</v>
@@ -14068,7 +13611,7 @@
         <v>6</v>
       </c>
       <c r="L50" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M50" s="43" t="s">
         <v>555</v>
@@ -14146,7 +13689,7 @@
         <v>9</v>
       </c>
       <c r="L51" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M51" s="43" t="s">
         <v>555</v>
@@ -14224,7 +13767,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M52" s="43" t="s">
         <v>555</v>
@@ -14302,7 +13845,7 @@
         <v>7</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M53" s="43" t="s">
         <v>555</v>
@@ -14612,7 +14155,7 @@
         <v>15</v>
       </c>
       <c r="L57" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M57" s="43" t="s">
         <v>555</v>
@@ -14690,7 +14233,7 @@
         <v>3</v>
       </c>
       <c r="L58" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M58" s="43" t="s">
         <v>555</v>
@@ -14846,7 +14389,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M60" s="43" t="s">
         <v>555</v>
@@ -15002,7 +14545,7 @@
         <v>5</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M62" s="43" t="s">
         <v>555</v>
@@ -15384,7 +14927,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M67" s="43" t="s">
         <v>555</v>
@@ -15460,7 +15003,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M68" s="43" t="s">
         <v>555</v>
@@ -15535,7 +15078,7 @@
         <v>2</v>
       </c>
       <c r="L69" s="52" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M69" s="43" t="s">
         <v>555</v>
@@ -15613,7 +15156,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="52" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M70" s="43" t="s">
         <v>555</v>
@@ -15689,7 +15232,7 @@
         <v>20</v>
       </c>
       <c r="L71" s="52" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M71" s="43" t="s">
         <v>555</v>
@@ -15767,7 +15310,7 @@
         <v>6</v>
       </c>
       <c r="L72" s="52" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M72" s="43" t="s">
         <v>555</v>
@@ -15840,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="52" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M73" s="43" t="s">
         <v>555</v>
@@ -15915,7 +15458,7 @@
         <v>3</v>
       </c>
       <c r="L74" s="52" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M74" s="43" t="s">
         <v>555</v>
@@ -16060,7 +15603,7 @@
         <v>13</v>
       </c>
       <c r="L76" s="52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M76" s="43" t="s">
         <v>555</v>
@@ -16216,7 +15759,7 @@
         <v>2</v>
       </c>
       <c r="L78" s="52" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M78" s="43" t="s">
         <v>555</v>
@@ -16294,7 +15837,7 @@
         <v>2</v>
       </c>
       <c r="L79" s="52" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M79" s="43" t="s">
         <v>555</v>
@@ -16372,7 +15915,7 @@
         <v>6</v>
       </c>
       <c r="L80" s="52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M80" s="43" t="s">
         <v>555</v>
@@ -16528,7 +16071,7 @@
         <v>6</v>
       </c>
       <c r="L82" s="52" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M82" s="43" t="s">
         <v>555</v>
@@ -16606,7 +16149,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M83" s="43" t="s">
         <v>555</v>
@@ -16682,7 +16225,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="52" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M84" s="43" t="s">
         <v>555</v>
@@ -16758,7 +16301,7 @@
         <v>6</v>
       </c>
       <c r="L85" s="52" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M85" s="43" t="s">
         <v>555</v>
@@ -16983,7 +16526,7 @@
         <v>4</v>
       </c>
       <c r="L88" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M88" s="43" t="s">
         <v>555</v>
@@ -17133,7 +16676,7 @@
         <v>6</v>
       </c>
       <c r="L90" s="52" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M90" s="43" t="s">
         <v>555</v>
@@ -17209,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="L91" s="34" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="M91" s="43" t="s">
         <v>555</v>
@@ -17282,7 +16825,7 @@
         <v>19</v>
       </c>
       <c r="L92" s="34" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M92" s="43" t="s">
         <v>555</v>
@@ -17436,7 +16979,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M94" s="43" t="s">
         <v>555</v>
@@ -17514,7 +17057,7 @@
         <v>8</v>
       </c>
       <c r="L95" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M95" s="43" t="s">
         <v>555</v>
@@ -17590,7 +17133,7 @@
         <v>5</v>
       </c>
       <c r="L96" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M96" s="43" t="s">
         <v>555</v>
@@ -17665,7 +17208,7 @@
         <v>3</v>
       </c>
       <c r="L97" s="52" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M97" s="43" t="s">
         <v>555</v>
@@ -17817,7 +17360,7 @@
         <v>14</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M99" s="43" t="s">
         <v>555</v>
@@ -17893,7 +17436,7 @@
         <v>5</v>
       </c>
       <c r="L100" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M100" s="43" t="s">
         <v>555</v>
@@ -17969,7 +17512,7 @@
         <v>2</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M101" s="43" t="s">
         <v>555</v>
@@ -18047,7 +17590,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="52" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M102" s="43" t="s">
         <v>555</v>
@@ -18123,7 +17666,7 @@
         <v>9</v>
       </c>
       <c r="L103" s="52" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M103" s="43" t="s">
         <v>555</v>
@@ -18198,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="52" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M104" s="43" t="s">
         <v>555</v>
@@ -18274,7 +17817,7 @@
         <v>9</v>
       </c>
       <c r="L105" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M105" s="43" t="s">
         <v>555</v>
@@ -18352,7 +17895,7 @@
         <v>17</v>
       </c>
       <c r="L106" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M106" s="43" t="s">
         <v>555</v>
@@ -18428,7 +17971,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M107" s="43" t="s">
         <v>555</v>
@@ -18503,7 +18046,7 @@
         <v>9</v>
       </c>
       <c r="L108" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M108" s="43" t="s">
         <v>555</v>
@@ -18578,7 +18121,7 @@
         <v>2</v>
       </c>
       <c r="L109" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M109" s="43" t="s">
         <v>555</v>
@@ -18656,7 +18199,7 @@
         <v>4</v>
       </c>
       <c r="L110" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M110" s="43" t="s">
         <v>555</v>
@@ -18728,7 +18271,7 @@
         <v>9</v>
       </c>
       <c r="L111" s="52" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M111" s="43" t="s">
         <v>555</v>
@@ -18806,7 +18349,7 @@
         <v>9</v>
       </c>
       <c r="L112" s="34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M112" s="43" t="s">
         <v>555</v>
@@ -18878,7 +18421,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="52" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M113" s="43" t="s">
         <v>555</v>
@@ -19032,7 +18575,7 @@
         <v>2</v>
       </c>
       <c r="L115" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M115" s="43" t="s">
         <v>555</v>
@@ -19107,7 +18650,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M116" s="43" t="s">
         <v>555</v>
@@ -19182,7 +18725,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M117" s="43" t="s">
         <v>555</v>
@@ -19260,7 +18803,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M118" s="43" t="s">
         <v>555</v>
@@ -19796,8 +19339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M60:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
+++ b/markdown + erd + wireframes + spreadsheet/neat-150730.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936"/>
+    <workbookView xWindow="360" yWindow="520" windowWidth="23920" windowHeight="14900" tabRatio="936"/>
   </bookViews>
   <sheets>
     <sheet name="neat-todo" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="679">
   <si>
     <t>Date</t>
   </si>
@@ -1757,12 +1757,6 @@
     <t>if I change any of the data in seeds</t>
   </si>
   <si>
-    <t>NAV BAR</t>
-  </si>
-  <si>
-    <t>SHOW WHISKEY PAGE</t>
-  </si>
-  <si>
     <t>link as many images as possible</t>
   </si>
   <si>
@@ -1796,12 +1790,6 @@
     <t>switches to the nav branch</t>
   </si>
   <si>
-    <t>ADD NEW COMMENT TO SHOW PAGE</t>
-  </si>
-  <si>
-    <t>display all whiskey's comments on whiskey show page</t>
-  </si>
-  <si>
     <t>WHISKEY IMAGES</t>
   </si>
   <si>
@@ -1898,15 +1886,6 @@
     <t>https://img.thewhiskyexchange.com/900/bnvcrn1998.jpg</t>
   </si>
   <si>
-    <t>make edit, delete capable</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
-    <t>style form in the middle of the page</t>
-  </si>
-  <si>
     <t>https://img.thewhiskyexchange.com/540/irish_clo3.jpg</t>
   </si>
   <si>
@@ -2006,12 +1985,6 @@
     <t>https://img.thewhiskyexchange.com/900/brbon_wil39.jpg</t>
   </si>
   <si>
-    <t>why is it still blue and underlined, when I've changed in CSS?</t>
-  </si>
-  <si>
-    <t>yellow #F1C232</t>
-  </si>
-  <si>
     <t>https://img.thewhiskyexchange.com/540/gfcob.12yov1.jpg</t>
   </si>
   <si>
@@ -2088,6 +2061,15 @@
   </si>
   <si>
     <t>image resizing</t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
+  <si>
+    <t>place it in navbar?</t>
+  </si>
+  <si>
+    <t>MAKE COMMENTS DELETEABLE</t>
   </si>
 </sst>
 </file>
@@ -4673,76 +4655,83 @@
     <row r="3" spans="1:6">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>574</v>
+        <v>676</v>
       </c>
       <c r="E3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="E4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>658</v>
-      </c>
       <c r="E5" t="s">
-        <v>578</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="22" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="22"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="22" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="22" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E11" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="22" t="s">
-        <v>587</v>
-      </c>
       <c r="E12" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:6">
+      <c r="B14" s="22" t="s">
+        <v>580</v>
+      </c>
       <c r="E14" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="22" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>623</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -4755,15 +4744,9 @@
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="22" t="s">
-        <v>577</v>
-      </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" t="s">
-        <v>581</v>
-      </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5">
@@ -4772,78 +4755,63 @@
     <row r="32" spans="2:5">
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="22" t="s">
-        <v>582</v>
-      </c>
+    <row r="33" spans="5:6">
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>583</v>
-      </c>
+    <row r="34" spans="5:6">
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>584</v>
-      </c>
+    <row r="35" spans="5:6">
       <c r="E35" s="29"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="5:6">
       <c r="E36" s="29"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="5:6">
       <c r="E37" s="29"/>
       <c r="F37" s="52"/>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="22" t="s">
-        <v>589</v>
-      </c>
+    <row r="38" spans="5:6">
       <c r="E38" s="29"/>
       <c r="F38" s="52"/>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>576</v>
-      </c>
+    <row r="39" spans="5:6">
       <c r="E39" s="29"/>
       <c r="F39" s="52"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="5:6">
       <c r="E40" s="29"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="5:6">
       <c r="E41" s="29"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="5:6">
       <c r="E42" s="29"/>
       <c r="F42" s="52"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="5:6">
       <c r="E43" s="29"/>
       <c r="F43" s="52"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="5:6">
       <c r="E44" s="29"/>
       <c r="F44" s="52"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="5:6">
       <c r="E45" s="48"/>
       <c r="F45" s="54"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="5:6">
       <c r="E46" s="29"/>
       <c r="F46" s="52"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="5:6">
       <c r="E47" s="29"/>
       <c r="F47" s="52"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="5:6">
       <c r="E48" s="29"/>
       <c r="F48" s="52"/>
     </row>
@@ -9892,7 +9860,7 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M2" s="43" t="s">
         <v>555</v>
@@ -9971,7 +9939,7 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M3" s="43" t="s">
         <v>555</v>
@@ -10049,7 +10017,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M4" s="43" t="s">
         <v>555</v>
@@ -10127,7 +10095,7 @@
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M5" s="43" t="s">
         <v>555</v>
@@ -10202,7 +10170,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M6" s="43" t="s">
         <v>555</v>
@@ -10280,7 +10248,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M7" s="43" t="s">
         <v>555</v>
@@ -10358,7 +10326,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M8" s="43" t="s">
         <v>555</v>
@@ -10436,7 +10404,7 @@
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M9" s="43" t="s">
         <v>555</v>
@@ -10514,7 +10482,7 @@
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>555</v>
@@ -10592,7 +10560,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M11" s="43" t="s">
         <v>555</v>
@@ -10670,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M12" s="43" t="s">
         <v>555</v>
@@ -10901,7 +10869,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M15" s="43" t="s">
         <v>555</v>
@@ -11057,7 +11025,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M17" s="43" t="s">
         <v>555</v>
@@ -11135,7 +11103,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="52" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M18" s="43" t="s">
         <v>555</v>
@@ -11369,7 +11337,7 @@
         <v>8</v>
       </c>
       <c r="L21" s="54" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M21" s="43" t="s">
         <v>555</v>
@@ -11447,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="52" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="M22" s="43" t="s">
         <v>555</v>
@@ -11525,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M23" s="43" t="s">
         <v>555</v>
@@ -11603,7 +11571,7 @@
         <v>5</v>
       </c>
       <c r="L24" s="52" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M24" s="43" t="s">
         <v>555</v>
@@ -11993,7 +11961,7 @@
         <v>7</v>
       </c>
       <c r="L29" s="52" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M29" s="43" t="s">
         <v>555</v>
@@ -12071,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="52" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M30" s="43" t="s">
         <v>555</v>
@@ -12146,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M31" s="43" t="s">
         <v>555</v>
@@ -12224,7 +12192,7 @@
         <v>7</v>
       </c>
       <c r="L32" s="52" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M32" s="43" t="s">
         <v>555</v>
@@ -12302,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="52" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M33" s="43" t="s">
         <v>555</v>
@@ -12374,7 +12342,7 @@
         <v>7</v>
       </c>
       <c r="L34" s="52" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M34" s="43" t="s">
         <v>555</v>
@@ -12452,7 +12420,7 @@
         <v>5</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M35" s="43" t="s">
         <v>555</v>
@@ -12530,7 +12498,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="52" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M36" s="43" t="s">
         <v>555</v>
@@ -12608,7 +12576,7 @@
         <v>2</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M37" s="43" t="s">
         <v>555</v>
@@ -12686,7 +12654,7 @@
         <v>7</v>
       </c>
       <c r="L38" s="52" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M38" s="43" t="s">
         <v>555</v>
@@ -12764,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M39" s="43" t="s">
         <v>555</v>
@@ -12842,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="52" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M40" s="43" t="s">
         <v>555</v>
@@ -12920,7 +12888,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M41" s="43" t="s">
         <v>555</v>
@@ -12992,7 +12960,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="52" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="M42" s="43" t="s">
         <v>555</v>
@@ -13070,7 +13038,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="M43" s="43" t="s">
         <v>555</v>
@@ -13148,7 +13116,7 @@
         <v>3</v>
       </c>
       <c r="L44" s="52" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="M44" s="43" t="s">
         <v>555</v>
@@ -13223,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="52" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="M45" s="43" t="s">
         <v>555</v>
@@ -13301,7 +13269,7 @@
         <v>5</v>
       </c>
       <c r="L46" s="52" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M46" s="43" t="s">
         <v>555</v>
@@ -13455,7 +13423,7 @@
         <v>3</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M48" s="43" t="s">
         <v>555</v>
@@ -13533,7 +13501,7 @@
         <v>18</v>
       </c>
       <c r="L49" s="52" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="M49" s="43" t="s">
         <v>555</v>
@@ -13611,7 +13579,7 @@
         <v>6</v>
       </c>
       <c r="L50" s="34" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M50" s="43" t="s">
         <v>555</v>
@@ -13689,7 +13657,7 @@
         <v>9</v>
       </c>
       <c r="L51" s="34" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="M51" s="43" t="s">
         <v>555</v>
@@ -13767,7 +13735,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="52" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="M52" s="43" t="s">
         <v>555</v>
@@ -13845,7 +13813,7 @@
         <v>7</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="M53" s="43" t="s">
         <v>555</v>
@@ -14155,7 +14123,7 @@
         <v>15</v>
       </c>
       <c r="L57" s="34" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="M57" s="43" t="s">
         <v>555</v>
@@ -14233,7 +14201,7 @@
         <v>3</v>
       </c>
       <c r="L58" s="34" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="M58" s="43" t="s">
         <v>555</v>
@@ -14389,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="34" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="M60" s="43" t="s">
         <v>555</v>
@@ -14545,7 +14513,7 @@
         <v>5</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="M62" s="43" t="s">
         <v>555</v>
@@ -14927,7 +14895,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M67" s="43" t="s">
         <v>555</v>
@@ -15003,7 +14971,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="34" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M68" s="43" t="s">
         <v>555</v>
@@ -15078,7 +15046,7 @@
         <v>2</v>
       </c>
       <c r="L69" s="52" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="M69" s="43" t="s">
         <v>555</v>
@@ -15156,7 +15124,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="52" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="M70" s="43" t="s">
         <v>555</v>
@@ -15232,7 +15200,7 @@
         <v>20</v>
       </c>
       <c r="L71" s="52" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="M71" s="43" t="s">
         <v>555</v>
@@ -15310,7 +15278,7 @@
         <v>6</v>
       </c>
       <c r="L72" s="52" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="M72" s="43" t="s">
         <v>555</v>
@@ -15383,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="52" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="M73" s="43" t="s">
         <v>555</v>
@@ -15458,7 +15426,7 @@
         <v>3</v>
       </c>
       <c r="L74" s="52" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="M74" s="43" t="s">
         <v>555</v>
@@ -15603,7 +15571,7 @@
         <v>13</v>
       </c>
       <c r="L76" s="52" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="M76" s="43" t="s">
         <v>555</v>
@@ -15759,7 +15727,7 @@
         <v>2</v>
       </c>
       <c r="L78" s="52" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="M78" s="43" t="s">
         <v>555</v>
@@ -15837,7 +15805,7 @@
         <v>2</v>
       </c>
       <c r="L79" s="52" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="M79" s="43" t="s">
         <v>555</v>
@@ -15915,7 +15883,7 @@
         <v>6</v>
       </c>
       <c r="L80" s="52" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="M80" s="43" t="s">
         <v>555</v>
@@ -16071,7 +16039,7 @@
         <v>6</v>
       </c>
       <c r="L82" s="52" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="M82" s="43" t="s">
         <v>555</v>
@@ -16149,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="52" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="M83" s="43" t="s">
         <v>555</v>
@@ -16225,7 +16193,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="52" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="M84" s="43" t="s">
         <v>555</v>
@@ -16301,7 +16269,7 @@
         <v>6</v>
       </c>
       <c r="L85" s="52" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="M85" s="43" t="s">
         <v>555</v>
@@ -16526,7 +16494,7 @@
         <v>4</v>
       </c>
       <c r="L88" s="34" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="M88" s="43" t="s">
         <v>555</v>
@@ -16676,7 +16644,7 @@
         <v>6</v>
       </c>
       <c r="L90" s="52" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="M90" s="43" t="s">
         <v>555</v>
@@ -16752,7 +16720,7 @@
         <v>4</v>
       </c>
       <c r="L91" s="34" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M91" s="43" t="s">
         <v>555</v>
@@ -16825,7 +16793,7 @@
         <v>19</v>
       </c>
       <c r="L92" s="34" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="M92" s="43" t="s">
         <v>555</v>
@@ -16979,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="34" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="M94" s="43" t="s">
         <v>555</v>
@@ -17057,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="L95" s="34" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="M95" s="43" t="s">
         <v>555</v>
@@ -17133,7 +17101,7 @@
         <v>5</v>
       </c>
       <c r="L96" s="34" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="M96" s="43" t="s">
         <v>555</v>
@@ -17208,7 +17176,7 @@
         <v>3</v>
       </c>
       <c r="L97" s="52" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="M97" s="43" t="s">
         <v>555</v>
@@ -17360,7 +17328,7 @@
         <v>14</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="M99" s="43" t="s">
         <v>555</v>
@@ -17436,7 +17404,7 @@
         <v>5</v>
       </c>
       <c r="L100" s="34" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="M100" s="43" t="s">
         <v>555</v>
@@ -17512,7 +17480,7 @@
         <v>2</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M101" s="43" t="s">
         <v>555</v>
@@ -17590,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="52" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="M102" s="43" t="s">
         <v>555</v>
@@ -17666,7 +17634,7 @@
         <v>9</v>
       </c>
       <c r="L103" s="52" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="M103" s="43" t="s">
         <v>555</v>
@@ -17741,7 +17709,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="52" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="M104" s="43" t="s">
         <v>555</v>
@@ -17817,7 +17785,7 @@
         <v>9</v>
       </c>
       <c r="L105" s="52" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="M105" s="43" t="s">
         <v>555</v>
@@ -17895,7 +17863,7 @@
         <v>17</v>
       </c>
       <c r="L106" s="34" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="M106" s="43" t="s">
         <v>555</v>
@@ -17971,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="34" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="M107" s="43" t="s">
         <v>555</v>
@@ -18046,7 +18014,7 @@
         <v>9</v>
       </c>
       <c r="L108" s="52" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="M108" s="43" t="s">
         <v>555</v>
@@ -18121,7 +18089,7 @@
         <v>2</v>
       </c>
       <c r="L109" s="34" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="M109" s="43" t="s">
         <v>555</v>
@@ -18199,7 +18167,7 @@
         <v>4</v>
       </c>
       <c r="L110" s="52" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="M110" s="43" t="s">
         <v>555</v>
@@ -18271,7 +18239,7 @@
         <v>9</v>
       </c>
       <c r="L111" s="52" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="M111" s="43" t="s">
         <v>555</v>
@@ -18349,7 +18317,7 @@
         <v>9</v>
       </c>
       <c r="L112" s="34" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="M112" s="43" t="s">
         <v>555</v>
@@ -18421,7 +18389,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="52" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="M113" s="43" t="s">
         <v>555</v>
@@ -18575,7 +18543,7 @@
         <v>2</v>
       </c>
       <c r="L115" s="34" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="M115" s="43" t="s">
         <v>555</v>
@@ -18650,7 +18618,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="34" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="M116" s="43" t="s">
         <v>555</v>
@@ -18725,7 +18693,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="34" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="M117" s="43" t="s">
         <v>555</v>
@@ -18803,7 +18771,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="34" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="M118" s="43" t="s">
         <v>555</v>
